--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>180250.2852198413</v>
+        <v>176044.141335236</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24772922.25259419</v>
+        <v>24540853.2453344</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6232475.423934673</v>
+        <v>6237248.400560643</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5883698.991426809</v>
+        <v>5891701.838733756</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>341.043002965439</v>
+        <v>35.16791248334776</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>114.9577730479997</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>166.476736033351</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -910,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>35.16791248334776</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>296.9592364133312</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>104.9141091864654</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>20.73696989209217</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>9.410612323644274</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>164.922067178428</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>219.7703493858182</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>255.100310023669</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>33.8109277954525</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>214.3635095521018</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>84.10307333667062</v>
       </c>
       <c r="H12" t="n">
-        <v>37.18311833486297</v>
+        <v>37.18311833486296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>54.86789680906529</v>
+        <v>54.86789680906528</v>
       </c>
       <c r="T12" t="n">
         <v>127.1510498014634</v>
@@ -1548,7 +1548,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I13" t="n">
-        <v>76.97845642156406</v>
+        <v>76.97845642156446</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.063515415806581</v>
+        <v>5.063515415806563</v>
       </c>
       <c r="S13" t="n">
-        <v>151.3932686552013</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T13" t="n">
         <v>241.8869156041224</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>278.0434075022746</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.2917890844211</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>214.3635095521018</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>157.0133753553117</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1785,7 +1785,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I16" t="n">
-        <v>76.97845642156406</v>
+        <v>76.978456421564</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.063515415807051</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S16" t="n">
         <v>151.3932686552011</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.189222384772478</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>396.5836142728854</v>
       </c>
       <c r="H17" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>64.57991364897666</v>
       </c>
       <c r="T17" t="n">
-        <v>197.5232044727207</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5.063515415807051</v>
+        <v>5.063515415806577</v>
       </c>
       <c r="S19" t="n">
         <v>151.3932686552011</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>214.7623033115333</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>319.3658620807557</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5.0635154158066</v>
+        <v>5.063515415806577</v>
       </c>
       <c r="S22" t="n">
         <v>151.3932686552011</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>214.7623033115329</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V23" t="n">
-        <v>12.69666131172291</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.182389662556</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>150.1470649389639</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>396.5836142728854</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>214.3635095521018</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>376.3254278425049</v>
       </c>
       <c r="G29" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>278.0434075022746</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.5660605529466</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>104.0249558466713</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I31" t="n">
-        <v>76.978456421564</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>154.4756930925664</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.5660605529466</v>
@@ -3091,13 +3091,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>369.1665237963026</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>6.189222384772928</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>396.5836142728854</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U35" t="n">
         <v>256.5660605529466</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>239.5367208391523</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3444,7 +3444,7 @@
         <v>135.3116756443242</v>
       </c>
       <c r="I37" t="n">
-        <v>76.97845642156406</v>
+        <v>76.9784564215649</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>285.1326455858504</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>196.9289909948177</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>396.5836142728854</v>
       </c>
       <c r="H38" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.5660605529466</v>
@@ -3571,7 +3571,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3742,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>371.0328168717162</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>383.9457757297321</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.37863934223582</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5660605529466</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>76.94394027121402</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.5671363874964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>83.76962949133717</v>
+        <v>84.10307333667062</v>
       </c>
       <c r="H45" t="n">
-        <v>33.96275277598468</v>
+        <v>37.18311833486297</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>48.67432362929711</v>
+        <v>54.86789680906529</v>
       </c>
       <c r="T45" t="n">
-        <v>125.8070371090887</v>
+        <v>127.1510498014634</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5230756520616</v>
+        <v>174.5450127471493</v>
       </c>
       <c r="V45" t="n">
         <v>197.1263427586206</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.2968545335806</v>
+        <v>163.5764026524035</v>
       </c>
       <c r="H46" t="n">
-        <v>132.8262387333357</v>
+        <v>135.3116756443242</v>
       </c>
       <c r="I46" t="n">
-        <v>68.57168208460098</v>
+        <v>76.97845642156406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.063515415806588</v>
       </c>
       <c r="S46" t="n">
-        <v>146.5215073480795</v>
+        <v>151.3932686552011</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6924827327884</v>
+        <v>241.8869156041224</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6138430471975</v>
+        <v>275.629091126406</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1259.948062117257</v>
+        <v>1824.618792525831</v>
       </c>
       <c r="C2" t="n">
-        <v>1259.948062117257</v>
+        <v>1386.476319709255</v>
       </c>
       <c r="D2" t="n">
-        <v>1259.948062117257</v>
+        <v>950.5665348836992</v>
       </c>
       <c r="E2" t="n">
-        <v>826.1733172755526</v>
+        <v>516.7917900419943</v>
       </c>
       <c r="F2" t="n">
-        <v>398.3058876847603</v>
+        <v>88.92436045120206</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4333,16 +4333,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2087.376649238293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2087.376649238293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1668.234185817604</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1259.948062117257</v>
+        <v>2250.918363010739</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>992.5572028308845</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C4" t="n">
-        <v>819.9954913141095</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>654.1174985156322</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>484.3594947663694</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>307.6524407281256</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
@@ -4518,22 +4518,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.5572028308845</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1824.618792525831</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.476319709255</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D5" t="n">
-        <v>950.5665348836992</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>516.7917900419943</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>88.92436045120206</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4573,46 +4573,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.918363010739</v>
+        <v>2066.382900828373</v>
       </c>
       <c r="Y5" t="n">
-        <v>2250.918363010739</v>
+        <v>2066.382900828373</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462408</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294657</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>590.3333424294657</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>590.3333424294657</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>413.6262883912219</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>248.0350134170496</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.13334335112</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652279</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1483.445958355599</v>
+        <v>490.7743151332029</v>
       </c>
       <c r="C8" t="n">
-        <v>1483.445958355599</v>
+        <v>490.7743151332029</v>
       </c>
       <c r="D8" t="n">
-        <v>1483.445958355599</v>
+        <v>490.7743151332029</v>
       </c>
       <c r="E8" t="n">
-        <v>1049.671213513894</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>621.8037839231015</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>220.4059525463654</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355599</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.445958355599</v>
+        <v>917.0738856181107</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1615.820070332263</v>
+        <v>1367.250209585693</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.142989500274</v>
+        <v>929.1077367691159</v>
       </c>
       <c r="D11" t="n">
-        <v>922.2332046747184</v>
+        <v>894.9552844504771</v>
       </c>
       <c r="E11" t="n">
-        <v>488.4584598330136</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="F11" t="n">
-        <v>60.59103024222132</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G11" t="n">
         <v>60.59103024222132</v>
@@ -5038,7 +5038,7 @@
         <v>60.59103024222132</v>
       </c>
       <c r="I11" t="n">
-        <v>90.7252288730233</v>
+        <v>90.72522887302333</v>
       </c>
       <c r="J11" t="n">
         <v>593.2199906656809</v>
@@ -5047,16 +5047,16 @@
         <v>1343.03398991317</v>
       </c>
       <c r="L11" t="n">
-        <v>1468.05483595059</v>
+        <v>1650.702714699876</v>
       </c>
       <c r="M11" t="n">
-        <v>1607.164616105323</v>
+        <v>1789.81249485461</v>
       </c>
       <c r="N11" t="n">
-        <v>1748.525337937758</v>
+        <v>1931.173216687044</v>
       </c>
       <c r="O11" t="n">
-        <v>1882.00825904599</v>
+        <v>2064.656137795277</v>
       </c>
       <c r="P11" t="n">
         <v>2178.580722724627</v>
@@ -5074,19 +5074,19 @@
         <v>2813.022714583691</v>
       </c>
       <c r="U11" t="n">
-        <v>2813.022714583691</v>
+        <v>2553.865077661522</v>
       </c>
       <c r="V11" t="n">
-        <v>2450.405764517517</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="W11" t="n">
-        <v>2450.405764517517</v>
+        <v>1786.392673006382</v>
       </c>
       <c r="X11" t="n">
-        <v>2450.405764517517</v>
+        <v>1367.250209585693</v>
       </c>
       <c r="Y11" t="n">
-        <v>2042.11964081717</v>
+        <v>1367.250209585693</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G12" t="n">
-        <v>98.1497356309718</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H12" t="n">
         <v>60.59103024222132</v>
       </c>
       <c r="I12" t="n">
-        <v>75.18527665341757</v>
+        <v>101.2489498138752</v>
       </c>
       <c r="J12" t="n">
-        <v>439.7913292557546</v>
+        <v>465.8550024162122</v>
       </c>
       <c r="K12" t="n">
-        <v>508.2392744941001</v>
+        <v>1137.509655601705</v>
       </c>
       <c r="L12" t="n">
-        <v>600.2759838681473</v>
+        <v>1229.546364975752</v>
       </c>
       <c r="M12" t="n">
-        <v>707.6784826165303</v>
+        <v>1336.948863724135</v>
       </c>
       <c r="N12" t="n">
-        <v>817.9236059206738</v>
+        <v>1447.193987028279</v>
       </c>
       <c r="O12" t="n">
-        <v>918.7763556108857</v>
+        <v>1548.046736718491</v>
       </c>
       <c r="P12" t="n">
-        <v>999.7195785727534</v>
+        <v>1628.989959680359</v>
       </c>
       <c r="Q12" t="n">
-        <v>1594.566918166798</v>
+        <v>1683.098360642327</v>
       </c>
       <c r="R12" t="n">
         <v>1709.416341813906</v>
@@ -5178,22 +5178,22 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C13" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103184</v>
       </c>
       <c r="D13" t="n">
-        <v>786.7192544118407</v>
+        <v>786.7192544118411</v>
       </c>
       <c r="E13" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625783</v>
       </c>
       <c r="F13" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243346</v>
       </c>
       <c r="G13" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764523</v>
       </c>
       <c r="H13" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296602</v>
       </c>
       <c r="I13" t="n">
         <v>60.59103024222132</v>
@@ -5202,7 +5202,7 @@
         <v>172.2953727318074</v>
       </c>
       <c r="K13" t="n">
-        <v>488.3413572775057</v>
+        <v>488.3413572775055</v>
       </c>
       <c r="L13" t="n">
         <v>959.3850626138548</v>
@@ -5226,13 +5226,13 @@
         <v>3024.436850074898</v>
       </c>
       <c r="S13" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T13" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U13" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V13" t="n">
         <v>2061.815407212268</v>
@@ -5244,7 +5244,7 @@
         <v>1544.397248131972</v>
       </c>
       <c r="Y13" t="n">
-        <v>1316.97757744608</v>
+        <v>1316.977577446081</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>742.0324663787467</v>
+        <v>1205.220171428544</v>
       </c>
       <c r="C14" t="n">
-        <v>742.0324663787467</v>
+        <v>1205.220171428544</v>
       </c>
       <c r="D14" t="n">
-        <v>742.0324663787467</v>
+        <v>769.310386602988</v>
       </c>
       <c r="E14" t="n">
-        <v>742.0324663787467</v>
+        <v>769.310386602988</v>
       </c>
       <c r="F14" t="n">
-        <v>742.0324663787467</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="G14" t="n">
         <v>341.4429570121957</v>
@@ -5275,25 +5275,25 @@
         <v>60.59103024222132</v>
       </c>
       <c r="I14" t="n">
-        <v>90.7252288730233</v>
+        <v>90.72522887302328</v>
       </c>
       <c r="J14" t="n">
-        <v>593.2199906656809</v>
+        <v>593.2199906656808</v>
       </c>
       <c r="K14" t="n">
-        <v>1343.03398991317</v>
+        <v>693.9954319098069</v>
       </c>
       <c r="L14" t="n">
-        <v>1468.05483595059</v>
+        <v>1443.809431157296</v>
       </c>
       <c r="M14" t="n">
-        <v>1607.164616105323</v>
+        <v>1582.919211312029</v>
       </c>
       <c r="N14" t="n">
-        <v>1748.525337937758</v>
+        <v>1724.279933144464</v>
       </c>
       <c r="O14" t="n">
-        <v>1882.00825904599</v>
+        <v>2064.656137795277</v>
       </c>
       <c r="P14" t="n">
         <v>2178.580722724627</v>
@@ -5305,25 +5305,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S14" t="n">
-        <v>2979.761826167206</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="T14" t="n">
-        <v>2763.233028639831</v>
+        <v>2813.022714583691</v>
       </c>
       <c r="U14" t="n">
-        <v>2763.233028639831</v>
+        <v>2553.865077661522</v>
       </c>
       <c r="V14" t="n">
-        <v>2400.616078573657</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="W14" t="n">
-        <v>1995.76062398469</v>
+        <v>2032.648758549579</v>
       </c>
       <c r="X14" t="n">
-        <v>1576.618160564001</v>
+        <v>1613.50629512889</v>
       </c>
       <c r="Y14" t="n">
-        <v>1168.332036863655</v>
+        <v>1205.220171428544</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>60.59103024222132</v>
       </c>
       <c r="I15" t="n">
-        <v>75.18527665341757</v>
+        <v>101.2489498138752</v>
       </c>
       <c r="J15" t="n">
-        <v>439.7913292557546</v>
+        <v>465.8550024162121</v>
       </c>
       <c r="K15" t="n">
-        <v>508.2392744941001</v>
+        <v>534.3029476545576</v>
       </c>
       <c r="L15" t="n">
-        <v>600.2759838681473</v>
+        <v>626.3396570286046</v>
       </c>
       <c r="M15" t="n">
-        <v>707.6784826165303</v>
+        <v>733.7421557769877</v>
       </c>
       <c r="N15" t="n">
-        <v>817.9236059206738</v>
+        <v>843.9872790811311</v>
       </c>
       <c r="O15" t="n">
-        <v>918.7763556108857</v>
+        <v>944.8400287713429</v>
       </c>
       <c r="P15" t="n">
-        <v>999.7195785727534</v>
+        <v>1025.783251733211</v>
       </c>
       <c r="Q15" t="n">
-        <v>1594.566918166798</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R15" t="n">
         <v>1709.416341813906</v>
@@ -5421,28 +5421,28 @@
         <v>786.7192544118407</v>
       </c>
       <c r="E16" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625779</v>
       </c>
       <c r="F16" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243341</v>
       </c>
       <c r="G16" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764518</v>
       </c>
       <c r="H16" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296597</v>
       </c>
       <c r="I16" t="n">
         <v>60.59103024222132</v>
       </c>
       <c r="J16" t="n">
-        <v>172.2953727318074</v>
+        <v>172.2953727318073</v>
       </c>
       <c r="K16" t="n">
-        <v>488.3413572775057</v>
+        <v>488.3413572775055</v>
       </c>
       <c r="L16" t="n">
-        <v>959.3850626138548</v>
+        <v>959.3850626138544</v>
       </c>
       <c r="M16" t="n">
         <v>1474.574788898945</v>
@@ -5451,7 +5451,7 @@
         <v>1971.214890339986</v>
       </c>
       <c r="O16" t="n">
-        <v>2441.114070398671</v>
+        <v>2441.11407039867</v>
       </c>
       <c r="P16" t="n">
         <v>2831.601347685255</v>
@@ -5460,7 +5460,7 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R16" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S16" t="n">
         <v>2871.514356483785</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1169.899895969539</v>
+        <v>467.4322793913707</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.899895969539</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="D17" t="n">
-        <v>1169.899895969539</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="E17" t="n">
-        <v>1169.899895969539</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="F17" t="n">
-        <v>742.0324663787467</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G17" t="n">
-        <v>341.4429570121957</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="H17" t="n">
         <v>60.59103024222132</v>
@@ -5518,19 +5518,19 @@
         <v>593.2199906656809</v>
       </c>
       <c r="K17" t="n">
-        <v>693.9954319098071</v>
+        <v>1343.03398991317</v>
       </c>
       <c r="L17" t="n">
-        <v>819.016277947227</v>
+        <v>1468.05483595059</v>
       </c>
       <c r="M17" t="n">
-        <v>958.1260581019604</v>
+        <v>1607.164616105323</v>
       </c>
       <c r="N17" t="n">
-        <v>1099.486779934395</v>
+        <v>1748.525337937758</v>
       </c>
       <c r="O17" t="n">
-        <v>1428.766723477139</v>
+        <v>1882.00825904599</v>
       </c>
       <c r="P17" t="n">
         <v>2178.580722724627</v>
@@ -5545,22 +5545,22 @@
         <v>2964.319276101999</v>
       </c>
       <c r="T17" t="n">
-        <v>2764.800887745715</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U17" t="n">
-        <v>2764.800887745715</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="V17" t="n">
-        <v>2402.183937679541</v>
+        <v>2126.015891586281</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.328483090575</v>
+        <v>1721.160436997314</v>
       </c>
       <c r="X17" t="n">
-        <v>1578.186019669885</v>
+        <v>1302.017973576625</v>
       </c>
       <c r="Y17" t="n">
-        <v>1169.899895969539</v>
+        <v>893.7318498762785</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>60.59103024222132</v>
       </c>
       <c r="I18" t="n">
-        <v>75.18527665341757</v>
+        <v>101.2489498138752</v>
       </c>
       <c r="J18" t="n">
-        <v>115.2330042895422</v>
+        <v>465.8550024162122</v>
       </c>
       <c r="K18" t="n">
-        <v>183.6809495278878</v>
+        <v>1020.336877507365</v>
       </c>
       <c r="L18" t="n">
-        <v>275.717658901935</v>
+        <v>1112.373586881413</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1201576503181</v>
+        <v>1219.776085629796</v>
       </c>
       <c r="N18" t="n">
-        <v>1132.934156897807</v>
+        <v>1330.021208933939</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.046736718491</v>
+        <v>1430.873958624151</v>
       </c>
       <c r="P18" t="n">
-        <v>1628.989959680359</v>
+        <v>1511.817181586019</v>
       </c>
       <c r="Q18" t="n">
-        <v>1683.098360642327</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R18" t="n">
         <v>1709.416341813906</v>
@@ -5652,22 +5652,22 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C19" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D19" t="n">
         <v>786.7192544118407</v>
       </c>
       <c r="E19" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625781</v>
       </c>
       <c r="F19" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243344</v>
       </c>
       <c r="G19" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764517</v>
       </c>
       <c r="H19" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296596</v>
       </c>
       <c r="I19" t="n">
         <v>60.59103024222132</v>
@@ -5676,10 +5676,10 @@
         <v>172.2953727318074</v>
       </c>
       <c r="K19" t="n">
-        <v>488.3413572775057</v>
+        <v>488.3413572775058</v>
       </c>
       <c r="L19" t="n">
-        <v>959.3850626138548</v>
+        <v>959.3850626138544</v>
       </c>
       <c r="M19" t="n">
         <v>1474.574788898945</v>
@@ -5697,16 +5697,16 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R19" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S19" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T19" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U19" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V19" t="n">
         <v>2061.815407212268</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1796.28546231685</v>
+        <v>958.964085885346</v>
       </c>
       <c r="C20" t="n">
-        <v>1358.142989500274</v>
+        <v>958.964085885346</v>
       </c>
       <c r="D20" t="n">
-        <v>922.2332046747184</v>
+        <v>958.964085885346</v>
       </c>
       <c r="E20" t="n">
-        <v>488.4584598330136</v>
+        <v>958.964085885346</v>
       </c>
       <c r="F20" t="n">
-        <v>60.59103024222132</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G20" t="n">
-        <v>60.59103024222132</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H20" t="n">
         <v>60.59103024222132</v>
       </c>
       <c r="I20" t="n">
-        <v>90.72522887302328</v>
+        <v>90.7252288730233</v>
       </c>
       <c r="J20" t="n">
-        <v>593.2199906656808</v>
+        <v>593.2199906656809</v>
       </c>
       <c r="K20" t="n">
-        <v>693.9954319098069</v>
+        <v>693.9954319098071</v>
       </c>
       <c r="L20" t="n">
-        <v>819.0162779472269</v>
+        <v>819.0162779472271</v>
       </c>
       <c r="M20" t="n">
-        <v>958.1260581019602</v>
+        <v>958.1260581019606</v>
       </c>
       <c r="N20" t="n">
         <v>1099.486779934395</v>
@@ -5779,25 +5779,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S20" t="n">
-        <v>2964.319276101999</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="T20" t="n">
-        <v>2964.319276101999</v>
+        <v>2813.022714583691</v>
       </c>
       <c r="U20" t="n">
-        <v>2964.319276101999</v>
+        <v>2553.865077661522</v>
       </c>
       <c r="V20" t="n">
-        <v>2964.319276101999</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="W20" t="n">
-        <v>2964.319276101999</v>
+        <v>1786.392673006382</v>
       </c>
       <c r="X20" t="n">
-        <v>2545.176812681309</v>
+        <v>1367.250209585693</v>
       </c>
       <c r="Y20" t="n">
-        <v>2222.585032801758</v>
+        <v>958.964085885346</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>101.2489498138752</v>
       </c>
       <c r="J21" t="n">
-        <v>465.8550024162121</v>
+        <v>465.8550024162122</v>
       </c>
       <c r="K21" t="n">
-        <v>534.3029476545576</v>
+        <v>534.3029476545578</v>
       </c>
       <c r="L21" t="n">
-        <v>626.3396570286046</v>
+        <v>626.339657028605</v>
       </c>
       <c r="M21" t="n">
-        <v>733.7421557769877</v>
+        <v>733.7421557769881</v>
       </c>
       <c r="N21" t="n">
-        <v>843.9872790811311</v>
+        <v>843.9872790811315</v>
       </c>
       <c r="O21" t="n">
-        <v>944.8400287713429</v>
+        <v>944.8400287713433</v>
       </c>
       <c r="P21" t="n">
         <v>1025.783251733211</v>
@@ -5913,7 +5913,7 @@
         <v>172.2953727318074</v>
       </c>
       <c r="K22" t="n">
-        <v>488.3413572775056</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L22" t="n">
         <v>959.3850626138546</v>
@@ -5922,10 +5922,10 @@
         <v>1474.574788898945</v>
       </c>
       <c r="N22" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O22" t="n">
-        <v>2441.11407039867</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P22" t="n">
         <v>2831.601347685255</v>
@@ -5934,7 +5934,7 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R22" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S22" t="n">
         <v>2871.514356483785</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1358.142989500274</v>
+        <v>958.9640858853455</v>
       </c>
       <c r="C23" t="n">
-        <v>1358.142989500274</v>
+        <v>958.9640858853455</v>
       </c>
       <c r="D23" t="n">
-        <v>922.2332046747184</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="E23" t="n">
-        <v>488.4584598330136</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F23" t="n">
-        <v>60.59103024222132</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G23" t="n">
-        <v>60.59103024222132</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H23" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I23" t="n">
         <v>90.72522887302328</v>
       </c>
       <c r="J23" t="n">
-        <v>157.9653032127629</v>
+        <v>593.2199906656808</v>
       </c>
       <c r="K23" t="n">
-        <v>258.740744456889</v>
+        <v>889.7924543443187</v>
       </c>
       <c r="L23" t="n">
-        <v>383.7615904943089</v>
+        <v>1014.813300381738</v>
       </c>
       <c r="M23" t="n">
-        <v>522.8713706490423</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N23" t="n">
-        <v>678.9527242296499</v>
+        <v>1295.283802368907</v>
       </c>
       <c r="O23" t="n">
         <v>1428.766723477139</v>
@@ -6019,22 +6019,22 @@
         <v>3029.551512111066</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.551512111066</v>
+        <v>2813.02271458369</v>
       </c>
       <c r="U23" t="n">
-        <v>3029.551512111066</v>
+        <v>2553.865077661522</v>
       </c>
       <c r="V23" t="n">
-        <v>3016.726601695184</v>
+        <v>2191.248127595348</v>
       </c>
       <c r="W23" t="n">
-        <v>2611.871147106217</v>
+        <v>1786.392673006382</v>
       </c>
       <c r="X23" t="n">
-        <v>2192.728683685528</v>
+        <v>1367.250209585692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1784.442559985182</v>
+        <v>958.9640858853455</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G24" t="n">
-        <v>98.1497356309718</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H24" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I24" t="n">
         <v>101.2489498138752</v>
       </c>
       <c r="J24" t="n">
-        <v>312.3200563256747</v>
+        <v>465.8550024162121</v>
       </c>
       <c r="K24" t="n">
-        <v>380.7680015640202</v>
+        <v>534.3029476545577</v>
       </c>
       <c r="L24" t="n">
-        <v>472.8047109380673</v>
+        <v>626.3396570286047</v>
       </c>
       <c r="M24" t="n">
-        <v>580.2072096864504</v>
+        <v>733.7421557769878</v>
       </c>
       <c r="N24" t="n">
-        <v>1330.021208933939</v>
+        <v>843.9872790811313</v>
       </c>
       <c r="O24" t="n">
-        <v>1430.873958624151</v>
+        <v>944.8400287713431</v>
       </c>
       <c r="P24" t="n">
-        <v>1511.817181586019</v>
+        <v>1025.783251733211</v>
       </c>
       <c r="Q24" t="n">
         <v>1565.925582547988</v>
@@ -6126,16 +6126,16 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C25" t="n">
-        <v>952.5972472103175</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D25" t="n">
-        <v>786.7192544118402</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E25" t="n">
-        <v>616.9612506625775</v>
+        <v>616.9612506625776</v>
       </c>
       <c r="F25" t="n">
-        <v>440.2541966243338</v>
+        <v>440.254196624334</v>
       </c>
       <c r="G25" t="n">
         <v>275.025507076452</v>
@@ -6144,13 +6144,13 @@
         <v>138.3470468296598</v>
       </c>
       <c r="I25" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="J25" t="n">
         <v>172.2953727318074</v>
       </c>
       <c r="K25" t="n">
-        <v>488.3413572775056</v>
+        <v>488.3413572775057</v>
       </c>
       <c r="L25" t="n">
         <v>959.3850626138546</v>
@@ -6159,10 +6159,10 @@
         <v>1474.574788898945</v>
       </c>
       <c r="N25" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O25" t="n">
-        <v>2441.114070398671</v>
+        <v>2441.11407039867</v>
       </c>
       <c r="P25" t="n">
         <v>2831.601347685255</v>
@@ -6183,10 +6183,10 @@
         <v>2348.770915341837</v>
       </c>
       <c r="V25" t="n">
-        <v>2061.815407212267</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W25" t="n">
-        <v>1789.789002798559</v>
+        <v>1789.78900279856</v>
       </c>
       <c r="X25" t="n">
         <v>1544.397248131972</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>742.0324663787467</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="C26" t="n">
-        <v>742.0324663787467</v>
+        <v>2039.584425636799</v>
       </c>
       <c r="D26" t="n">
-        <v>742.0324663787467</v>
+        <v>1603.674640811244</v>
       </c>
       <c r="E26" t="n">
-        <v>742.0324663787467</v>
+        <v>1169.899895969539</v>
       </c>
       <c r="F26" t="n">
         <v>742.0324663787467</v>
@@ -6220,31 +6220,31 @@
         <v>341.4429570121957</v>
       </c>
       <c r="H26" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I26" t="n">
-        <v>90.72522887302327</v>
+        <v>90.72522887302328</v>
       </c>
       <c r="J26" t="n">
         <v>593.2199906656808</v>
       </c>
       <c r="K26" t="n">
-        <v>1343.033989913169</v>
+        <v>889.7924543443187</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.054835950589</v>
+        <v>1014.813300381738</v>
       </c>
       <c r="M26" t="n">
-        <v>1607.164616105323</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N26" t="n">
-        <v>1748.525337937757</v>
+        <v>1295.283802368907</v>
       </c>
       <c r="O26" t="n">
-        <v>1882.008259045989</v>
+        <v>1428.766723477139</v>
       </c>
       <c r="P26" t="n">
-        <v>2631.822258293478</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q26" t="n">
         <v>2810.632127459411</v>
@@ -6253,25 +6253,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S26" t="n">
-        <v>2964.319276101998</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="T26" t="n">
-        <v>2747.790478574623</v>
+        <v>2813.022714583691</v>
       </c>
       <c r="U26" t="n">
-        <v>2488.632841652454</v>
+        <v>2553.865077661522</v>
       </c>
       <c r="V26" t="n">
-        <v>2126.015891586281</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="W26" t="n">
-        <v>1721.160436997314</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="X26" t="n">
-        <v>1302.017973576625</v>
+        <v>2191.248127595349</v>
       </c>
       <c r="Y26" t="n">
-        <v>893.731849876278</v>
+        <v>2191.248127595349</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1882.288508331791</v>
+        <v>562.1533380346312</v>
       </c>
       <c r="C27" t="n">
-        <v>1775.832047168433</v>
+        <v>455.6968768712736</v>
       </c>
       <c r="D27" t="n">
-        <v>1680.741758314986</v>
+        <v>360.6065880178268</v>
       </c>
       <c r="E27" t="n">
-        <v>1586.62134364194</v>
+        <v>266.4861733447805</v>
       </c>
       <c r="F27" t="n">
-        <v>1503.237505258101</v>
+        <v>183.1023349609421</v>
       </c>
       <c r="G27" t="n">
-        <v>1418.284905928131</v>
+        <v>98.1497356309718</v>
       </c>
       <c r="H27" t="n">
-        <v>1380.726200539381</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I27" t="n">
-        <v>1421.384120111035</v>
+        <v>101.2489498138752</v>
       </c>
       <c r="J27" t="n">
-        <v>1785.990172713372</v>
+        <v>465.8550024162121</v>
       </c>
       <c r="K27" t="n">
-        <v>1854.438117951717</v>
+        <v>534.3029476545577</v>
       </c>
       <c r="L27" t="n">
-        <v>1946.474827325764</v>
+        <v>626.3396570286047</v>
       </c>
       <c r="M27" t="n">
-        <v>2053.877326074147</v>
+        <v>733.7421557769878</v>
       </c>
       <c r="N27" t="n">
-        <v>2164.122449378291</v>
+        <v>843.9872790811313</v>
       </c>
       <c r="O27" t="n">
-        <v>2264.975199068503</v>
+        <v>944.8400287713431</v>
       </c>
       <c r="P27" t="n">
-        <v>2345.91842203037</v>
+        <v>1025.783251733211</v>
       </c>
       <c r="Q27" t="n">
-        <v>2886.060752845147</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R27" t="n">
-        <v>3029.551512111066</v>
+        <v>1709.416341813906</v>
       </c>
       <c r="S27" t="n">
-        <v>2974.129394122111</v>
+        <v>1653.994223824951</v>
       </c>
       <c r="T27" t="n">
-        <v>2845.693990282249</v>
+        <v>1525.558819985089</v>
       </c>
       <c r="U27" t="n">
-        <v>2669.385896598259</v>
+        <v>1349.2507263011</v>
       </c>
       <c r="V27" t="n">
-        <v>2470.268378660259</v>
+        <v>1150.1332083631</v>
       </c>
       <c r="W27" t="n">
-        <v>2284.945624393453</v>
+        <v>964.8104540962936</v>
       </c>
       <c r="X27" t="n">
-        <v>2130.078188632333</v>
+        <v>809.9430183351736</v>
       </c>
       <c r="Y27" t="n">
-        <v>2003.592409411554</v>
+        <v>683.4572391143944</v>
       </c>
     </row>
     <row r="28">
@@ -6363,25 +6363,25 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C28" t="n">
-        <v>952.5972472103184</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D28" t="n">
-        <v>786.7192544118411</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E28" t="n">
-        <v>616.9612506625783</v>
+        <v>616.9612506625776</v>
       </c>
       <c r="F28" t="n">
-        <v>440.2541966243346</v>
+        <v>440.254196624334</v>
       </c>
       <c r="G28" t="n">
-        <v>275.0255070764518</v>
+        <v>275.0255070764517</v>
       </c>
       <c r="H28" t="n">
-        <v>138.3470468296597</v>
+        <v>138.3470468296596</v>
       </c>
       <c r="I28" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J28" t="n">
         <v>172.2953727318074</v>
@@ -6396,10 +6396,10 @@
         <v>1474.574788898945</v>
       </c>
       <c r="N28" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O28" t="n">
-        <v>2441.11407039867</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P28" t="n">
         <v>2831.601347685255</v>
@@ -6408,16 +6408,16 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R28" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S28" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T28" t="n">
         <v>2627.184138701843</v>
       </c>
       <c r="U28" t="n">
-        <v>2348.770915341838</v>
+        <v>2348.770915341837</v>
       </c>
       <c r="V28" t="n">
         <v>2061.815407212268</v>
@@ -6429,7 +6429,7 @@
         <v>1544.397248131972</v>
       </c>
       <c r="Y28" t="n">
-        <v>1316.977577446081</v>
+        <v>1316.97757744608</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1616.084724020879</v>
+        <v>1157.47943662816</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.942251204302</v>
+        <v>1157.47943662816</v>
       </c>
       <c r="D29" t="n">
-        <v>742.0324663787467</v>
+        <v>721.5696518026048</v>
       </c>
       <c r="E29" t="n">
-        <v>742.0324663787467</v>
+        <v>721.5696518026048</v>
       </c>
       <c r="F29" t="n">
-        <v>742.0324663787467</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="G29" t="n">
         <v>341.4429570121957</v>
@@ -6463,22 +6463,22 @@
         <v>90.72522887302328</v>
       </c>
       <c r="J29" t="n">
-        <v>157.9653032127629</v>
+        <v>593.2199906656808</v>
       </c>
       <c r="K29" t="n">
-        <v>907.7793024602518</v>
+        <v>909.3507905231999</v>
       </c>
       <c r="L29" t="n">
-        <v>1032.800148497671</v>
+        <v>1034.37163656062</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.909928652405</v>
+        <v>1173.481416715353</v>
       </c>
       <c r="N29" t="n">
-        <v>1313.27065048484</v>
+        <v>1314.842138547788</v>
       </c>
       <c r="O29" t="n">
-        <v>1446.753571593072</v>
+        <v>2064.656137795277</v>
       </c>
       <c r="P29" t="n">
         <v>2178.580722724627</v>
@@ -6490,25 +6490,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S29" t="n">
-        <v>2964.319276101999</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="T29" t="n">
-        <v>2747.790478574623</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="U29" t="n">
-        <v>2488.632841652455</v>
+        <v>2770.393875188898</v>
       </c>
       <c r="V29" t="n">
-        <v>2126.015891586281</v>
+        <v>2407.776925122724</v>
       </c>
       <c r="W29" t="n">
-        <v>1721.160436997314</v>
+        <v>2002.921470533757</v>
       </c>
       <c r="X29" t="n">
-        <v>1616.084724020879</v>
+        <v>1583.779007113068</v>
       </c>
       <c r="Y29" t="n">
-        <v>1616.084724020879</v>
+        <v>1583.779007113068</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>465.8550024162121</v>
       </c>
       <c r="K30" t="n">
-        <v>534.3029476545576</v>
+        <v>534.3029476545577</v>
       </c>
       <c r="L30" t="n">
-        <v>626.3396570286046</v>
+        <v>626.3396570286047</v>
       </c>
       <c r="M30" t="n">
-        <v>733.7421557769877</v>
+        <v>733.7421557769878</v>
       </c>
       <c r="N30" t="n">
-        <v>843.9872790811311</v>
+        <v>843.9872790811313</v>
       </c>
       <c r="O30" t="n">
-        <v>944.8400287713429</v>
+        <v>944.8400287713431</v>
       </c>
       <c r="P30" t="n">
         <v>1025.783251733211</v>
@@ -6600,43 +6600,43 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C31" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D31" t="n">
         <v>786.7192544118407</v>
       </c>
       <c r="E31" t="n">
-        <v>616.9612506625779</v>
+        <v>616.9612506625781</v>
       </c>
       <c r="F31" t="n">
-        <v>440.2541966243341</v>
+        <v>440.2541966243344</v>
       </c>
       <c r="G31" t="n">
-        <v>275.0255070764518</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3470468296597</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I31" t="n">
         <v>60.59103024222132</v>
       </c>
       <c r="J31" t="n">
-        <v>172.2953727318071</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K31" t="n">
-        <v>488.3413572775052</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L31" t="n">
-        <v>959.3850626138542</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M31" t="n">
-        <v>1474.574788898944</v>
+        <v>1474.574788898945</v>
       </c>
       <c r="N31" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O31" t="n">
-        <v>2441.11407039867</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P31" t="n">
         <v>2831.601347685255</v>
@@ -6648,13 +6648,13 @@
         <v>3024.436850074898</v>
       </c>
       <c r="S31" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T31" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U31" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V31" t="n">
         <v>2061.815407212268</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1362.510717475146</v>
+        <v>1207.452859419565</v>
       </c>
       <c r="C32" t="n">
-        <v>924.3682446585691</v>
+        <v>769.310386602988</v>
       </c>
       <c r="D32" t="n">
-        <v>488.4584598330136</v>
+        <v>769.310386602988</v>
       </c>
       <c r="E32" t="n">
-        <v>488.4584598330136</v>
+        <v>769.310386602988</v>
       </c>
       <c r="F32" t="n">
-        <v>60.59103024222132</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="G32" t="n">
-        <v>60.59103024222132</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H32" t="n">
         <v>60.59103024222132</v>
@@ -6703,16 +6703,16 @@
         <v>157.9653032127629</v>
       </c>
       <c r="K32" t="n">
-        <v>258.740744456889</v>
+        <v>258.7407444568891</v>
       </c>
       <c r="L32" t="n">
-        <v>383.7615904943089</v>
+        <v>398.482222242482</v>
       </c>
       <c r="M32" t="n">
-        <v>522.8713706490423</v>
+        <v>537.5920023972154</v>
       </c>
       <c r="N32" t="n">
-        <v>1272.685369896531</v>
+        <v>678.9527242296499</v>
       </c>
       <c r="O32" t="n">
         <v>1428.766723477139</v>
@@ -6727,25 +6727,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S32" t="n">
-        <v>2964.319276101999</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.283222473144</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="U32" t="n">
-        <v>2549.125585550975</v>
+        <v>2770.393875188898</v>
       </c>
       <c r="V32" t="n">
-        <v>2186.508635484802</v>
+        <v>2407.776925122724</v>
       </c>
       <c r="W32" t="n">
-        <v>1781.653180895835</v>
+        <v>2034.8814465406</v>
       </c>
       <c r="X32" t="n">
-        <v>1362.510717475146</v>
+        <v>1615.738983119911</v>
       </c>
       <c r="Y32" t="n">
-        <v>1362.510717475146</v>
+        <v>1207.452859419565</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>465.8550024162121</v>
       </c>
       <c r="K33" t="n">
-        <v>534.3029476545576</v>
+        <v>1020.336877507365</v>
       </c>
       <c r="L33" t="n">
-        <v>626.3396570286046</v>
+        <v>1112.373586881413</v>
       </c>
       <c r="M33" t="n">
-        <v>733.7421557769877</v>
+        <v>1219.776085629796</v>
       </c>
       <c r="N33" t="n">
-        <v>843.9872790811311</v>
+        <v>1330.021208933939</v>
       </c>
       <c r="O33" t="n">
-        <v>944.8400287713429</v>
+        <v>1430.873958624151</v>
       </c>
       <c r="P33" t="n">
-        <v>1025.783251733211</v>
+        <v>1511.817181586019</v>
       </c>
       <c r="Q33" t="n">
         <v>1565.925582547988</v>
@@ -6870,7 +6870,7 @@
         <v>1474.574788898945</v>
       </c>
       <c r="N34" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O34" t="n">
         <v>2441.114070398671</v>
@@ -6882,7 +6882,7 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R34" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S34" t="n">
         <v>2871.514356483785</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1760.965186857846</v>
+        <v>467.4322793913711</v>
       </c>
       <c r="C35" t="n">
-        <v>1322.822714041269</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="D35" t="n">
-        <v>1322.822714041269</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="E35" t="n">
-        <v>889.0479691995645</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="F35" t="n">
         <v>461.1805396087722</v>
       </c>
       <c r="G35" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="H35" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I35" t="n">
-        <v>90.72522887302328</v>
+        <v>90.7252288730233</v>
       </c>
       <c r="J35" t="n">
         <v>593.2199906656808</v>
@@ -6955,34 +6955,34 @@
         <v>1428.766723477139</v>
       </c>
       <c r="P35" t="n">
-        <v>2178.580722724627</v>
+        <v>2178.580722724628</v>
       </c>
       <c r="Q35" t="n">
-        <v>2810.632127459411</v>
+        <v>2810.632127459412</v>
       </c>
       <c r="R35" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="S35" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.551512111066</v>
+        <v>2747.790478574624</v>
       </c>
       <c r="U35" t="n">
-        <v>2770.393875188898</v>
+        <v>2488.632841652455</v>
       </c>
       <c r="V35" t="n">
-        <v>2407.776925122724</v>
+        <v>2126.015891586282</v>
       </c>
       <c r="W35" t="n">
-        <v>2002.921470533757</v>
+        <v>1721.160436997315</v>
       </c>
       <c r="X35" t="n">
-        <v>1760.965186857846</v>
+        <v>1302.017973576626</v>
       </c>
       <c r="Y35" t="n">
-        <v>1760.965186857846</v>
+        <v>893.7318498762789</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>98.1497356309718</v>
       </c>
       <c r="H36" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222134</v>
       </c>
       <c r="I36" t="n">
         <v>101.2489498138752</v>
@@ -7019,25 +7019,25 @@
         <v>465.8550024162121</v>
       </c>
       <c r="K36" t="n">
-        <v>596.7707169696299</v>
+        <v>534.3029476545577</v>
       </c>
       <c r="L36" t="n">
-        <v>688.807426343677</v>
+        <v>626.3396570286047</v>
       </c>
       <c r="M36" t="n">
-        <v>796.2099250920601</v>
+        <v>733.7421557769878</v>
       </c>
       <c r="N36" t="n">
-        <v>906.4550483962034</v>
+        <v>843.9872790811313</v>
       </c>
       <c r="O36" t="n">
-        <v>1007.307798086415</v>
+        <v>944.8400287713431</v>
       </c>
       <c r="P36" t="n">
-        <v>1088.251021048283</v>
+        <v>1025.783251733211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1683.098360642327</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R36" t="n">
         <v>1709.416341813906</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1125.158958727093</v>
+        <v>1125.158958727094</v>
       </c>
       <c r="C37" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103189</v>
       </c>
       <c r="D37" t="n">
-        <v>786.7192544118407</v>
+        <v>786.7192544118416</v>
       </c>
       <c r="E37" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625788</v>
       </c>
       <c r="F37" t="n">
-        <v>440.2541966243342</v>
+        <v>440.254196624335</v>
       </c>
       <c r="G37" t="n">
-        <v>275.0255070764519</v>
+        <v>275.0255070764528</v>
       </c>
       <c r="H37" t="n">
-        <v>138.3470468296598</v>
+        <v>138.3470468296606</v>
       </c>
       <c r="I37" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222133</v>
       </c>
       <c r="J37" t="n">
-        <v>172.2953727318076</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K37" t="n">
-        <v>488.3413572775058</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L37" t="n">
-        <v>959.3850626138548</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M37" t="n">
         <v>1474.574788898945</v>
@@ -7116,7 +7116,7 @@
         <v>2831.601347685255</v>
       </c>
       <c r="Q37" t="n">
-        <v>3029.551512111066</v>
+        <v>3029.551512111067</v>
       </c>
       <c r="R37" t="n">
         <v>3024.436850074898</v>
@@ -7128,19 +7128,19 @@
         <v>2627.184138701844</v>
       </c>
       <c r="U37" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V37" t="n">
-        <v>2061.815407212268</v>
+        <v>2061.815407212269</v>
       </c>
       <c r="W37" t="n">
         <v>1789.78900279856</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.397248131972</v>
+        <v>1544.397248131973</v>
       </c>
       <c r="Y37" t="n">
-        <v>1316.97757744608</v>
+        <v>1316.977577446081</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>940.9506391007848</v>
+        <v>749.1933129278131</v>
       </c>
       <c r="C38" t="n">
-        <v>940.9506391007848</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="D38" t="n">
-        <v>940.9506391007848</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="E38" t="n">
-        <v>940.9506391007848</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="F38" t="n">
-        <v>742.0324663787467</v>
+        <v>461.1805396087722</v>
       </c>
       <c r="G38" t="n">
-        <v>341.4429570121957</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="H38" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I38" t="n">
-        <v>90.72522887302328</v>
+        <v>90.72522887302327</v>
       </c>
       <c r="J38" t="n">
         <v>593.2199906656808</v>
       </c>
       <c r="K38" t="n">
-        <v>693.9954319098069</v>
+        <v>1343.033989913169</v>
       </c>
       <c r="L38" t="n">
-        <v>819.0162779472269</v>
+        <v>1468.054835950589</v>
       </c>
       <c r="M38" t="n">
-        <v>958.1260581019602</v>
+        <v>1607.164616105323</v>
       </c>
       <c r="N38" t="n">
-        <v>1099.486779934395</v>
+        <v>1748.525337937757</v>
       </c>
       <c r="O38" t="n">
-        <v>1428.766723477139</v>
+        <v>1882.008259045989</v>
       </c>
       <c r="P38" t="n">
         <v>2178.580722724627</v>
@@ -7204,22 +7204,22 @@
         <v>3029.551512111066</v>
       </c>
       <c r="T38" t="n">
-        <v>2813.022714583691</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="U38" t="n">
-        <v>2553.865077661522</v>
+        <v>2770.393875188897</v>
       </c>
       <c r="V38" t="n">
-        <v>2191.248127595349</v>
+        <v>2407.776925122724</v>
       </c>
       <c r="W38" t="n">
-        <v>1786.392673006382</v>
+        <v>2002.921470533757</v>
       </c>
       <c r="X38" t="n">
-        <v>1367.250209585693</v>
+        <v>1583.779007113068</v>
       </c>
       <c r="Y38" t="n">
-        <v>1367.250209585693</v>
+        <v>1175.492883412721</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G39" t="n">
-        <v>98.1497356309718</v>
+        <v>98.14973563097179</v>
       </c>
       <c r="H39" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="I39" t="n">
         <v>101.2489498138752</v>
@@ -7256,22 +7256,22 @@
         <v>465.8550024162121</v>
       </c>
       <c r="K39" t="n">
-        <v>534.3029476545576</v>
+        <v>1020.336877507365</v>
       </c>
       <c r="L39" t="n">
-        <v>626.3396570286046</v>
+        <v>1112.373586881413</v>
       </c>
       <c r="M39" t="n">
-        <v>733.7421557769877</v>
+        <v>1219.776085629796</v>
       </c>
       <c r="N39" t="n">
-        <v>843.9872790811311</v>
+        <v>1330.021208933939</v>
       </c>
       <c r="O39" t="n">
-        <v>944.8400287713429</v>
+        <v>1430.873958624151</v>
       </c>
       <c r="P39" t="n">
-        <v>1025.783251733211</v>
+        <v>1511.817181586019</v>
       </c>
       <c r="Q39" t="n">
         <v>1565.925582547988</v>
@@ -7311,43 +7311,43 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C40" t="n">
-        <v>952.5972472103175</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D40" t="n">
-        <v>786.7192544118402</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E40" t="n">
-        <v>616.9612506625775</v>
+        <v>616.9612506625776</v>
       </c>
       <c r="F40" t="n">
-        <v>440.2541966243338</v>
+        <v>440.254196624334</v>
       </c>
       <c r="G40" t="n">
-        <v>275.0255070764517</v>
+        <v>275.025507076452</v>
       </c>
       <c r="H40" t="n">
-        <v>138.3470468296596</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I40" t="n">
-        <v>60.59103024222132</v>
+        <v>60.59103024222131</v>
       </c>
       <c r="J40" t="n">
-        <v>172.2953727318079</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K40" t="n">
-        <v>488.3413572775061</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L40" t="n">
-        <v>959.3850626138551</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M40" t="n">
-        <v>1474.574788898945</v>
+        <v>1474.574788898944</v>
       </c>
       <c r="N40" t="n">
-        <v>1971.214890339987</v>
+        <v>1971.214890339986</v>
       </c>
       <c r="O40" t="n">
-        <v>2441.114070398671</v>
+        <v>2441.11407039867</v>
       </c>
       <c r="P40" t="n">
         <v>2831.601347685255</v>
@@ -7356,7 +7356,7 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R40" t="n">
-        <v>3024.436850074898</v>
+        <v>3024.436850074897</v>
       </c>
       <c r="S40" t="n">
         <v>2871.514356483785</v>
@@ -7368,10 +7368,10 @@
         <v>2348.770915341837</v>
       </c>
       <c r="V40" t="n">
-        <v>2061.815407212267</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W40" t="n">
-        <v>1789.789002798559</v>
+        <v>1789.78900279856</v>
       </c>
       <c r="X40" t="n">
         <v>1544.397248131972</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1796.28546231685</v>
+        <v>1550.587834323195</v>
       </c>
       <c r="C41" t="n">
-        <v>1358.142989500274</v>
+        <v>1175.807211220452</v>
       </c>
       <c r="D41" t="n">
-        <v>922.2332046747184</v>
+        <v>1175.807211220452</v>
       </c>
       <c r="E41" t="n">
-        <v>488.4584598330136</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="F41" t="n">
-        <v>60.59103024222131</v>
+        <v>742.0324663787467</v>
       </c>
       <c r="G41" t="n">
-        <v>60.59103024222131</v>
+        <v>341.4429570121957</v>
       </c>
       <c r="H41" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I41" t="n">
-        <v>90.72522887302327</v>
+        <v>90.72522887302328</v>
       </c>
       <c r="J41" t="n">
         <v>157.9653032127629</v>
       </c>
       <c r="K41" t="n">
-        <v>258.740744456889</v>
+        <v>889.7924543443187</v>
       </c>
       <c r="L41" t="n">
-        <v>383.7615904943089</v>
+        <v>1014.813300381738</v>
       </c>
       <c r="M41" t="n">
-        <v>522.8713706490423</v>
+        <v>1153.923080536472</v>
       </c>
       <c r="N41" t="n">
-        <v>678.95272422965</v>
+        <v>1295.283802368907</v>
       </c>
       <c r="O41" t="n">
         <v>1428.766723477139</v>
@@ -7438,25 +7438,25 @@
         <v>3029.551512111066</v>
       </c>
       <c r="S41" t="n">
-        <v>3029.551512111066</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.551512111066</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="U41" t="n">
-        <v>3029.551512111066</v>
+        <v>2747.790478574623</v>
       </c>
       <c r="V41" t="n">
-        <v>3029.551512111066</v>
+        <v>2385.17352850845</v>
       </c>
       <c r="W41" t="n">
-        <v>3029.551512111066</v>
+        <v>2385.17352850845</v>
       </c>
       <c r="X41" t="n">
-        <v>2610.409048690376</v>
+        <v>2385.17352850845</v>
       </c>
       <c r="Y41" t="n">
-        <v>2222.585032801758</v>
+        <v>1976.887404808103</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>183.1023349609421</v>
       </c>
       <c r="G42" t="n">
-        <v>98.14973563097179</v>
+        <v>98.1497356309718</v>
       </c>
       <c r="H42" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I42" t="n">
         <v>101.2489498138752</v>
@@ -7548,40 +7548,40 @@
         <v>1125.158958727093</v>
       </c>
       <c r="C43" t="n">
-        <v>952.597247210318</v>
+        <v>952.5972472103181</v>
       </c>
       <c r="D43" t="n">
         <v>786.7192544118407</v>
       </c>
       <c r="E43" t="n">
-        <v>616.961250662578</v>
+        <v>616.9612506625781</v>
       </c>
       <c r="F43" t="n">
-        <v>440.2541966243342</v>
+        <v>440.2541966243344</v>
       </c>
       <c r="G43" t="n">
-        <v>275.025507076452</v>
+        <v>275.0255070764515</v>
       </c>
       <c r="H43" t="n">
         <v>138.3470468296598</v>
       </c>
       <c r="I43" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J43" t="n">
-        <v>172.2953727318076</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K43" t="n">
-        <v>488.3413572775058</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L43" t="n">
-        <v>959.3850626138548</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M43" t="n">
         <v>1474.574788898945</v>
       </c>
       <c r="N43" t="n">
-        <v>1971.214890339986</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O43" t="n">
         <v>2441.114070398671</v>
@@ -7593,16 +7593,16 @@
         <v>3029.551512111066</v>
       </c>
       <c r="R43" t="n">
-        <v>3024.436850074897</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S43" t="n">
-        <v>2871.514356483785</v>
+        <v>2871.514356483786</v>
       </c>
       <c r="T43" t="n">
-        <v>2627.184138701843</v>
+        <v>2627.184138701844</v>
       </c>
       <c r="U43" t="n">
-        <v>2348.770915341837</v>
+        <v>2348.770915341838</v>
       </c>
       <c r="V43" t="n">
         <v>2061.815407212268</v>
@@ -7636,61 +7636,61 @@
         <v>488.4584598330136</v>
       </c>
       <c r="F44" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="G44" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="H44" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I44" t="n">
-        <v>114.511062397259</v>
+        <v>90.72522887302328</v>
       </c>
       <c r="J44" t="n">
-        <v>234.1159091402824</v>
+        <v>593.2199906656808</v>
       </c>
       <c r="K44" t="n">
-        <v>983.9299083877711</v>
+        <v>693.9954319098069</v>
       </c>
       <c r="L44" t="n">
-        <v>1206.313647204539</v>
+        <v>819.0162779472269</v>
       </c>
       <c r="M44" t="n">
-        <v>1453.758405397336</v>
+        <v>958.1260581019602</v>
       </c>
       <c r="N44" t="n">
-        <v>1705.207078473223</v>
+        <v>1099.486779934395</v>
       </c>
       <c r="O44" t="n">
-        <v>1942.64293021388</v>
+        <v>1428.766723477139</v>
       </c>
       <c r="P44" t="n">
-        <v>2242.352794218957</v>
+        <v>2178.580722724627</v>
       </c>
       <c r="Q44" t="n">
-        <v>2941.030291424795</v>
+        <v>2810.632127459411</v>
       </c>
       <c r="R44" t="n">
         <v>3029.551512111066</v>
       </c>
       <c r="S44" t="n">
-        <v>2978.663997623959</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="T44" t="n">
-        <v>2978.663997623959</v>
+        <v>2964.319276101999</v>
       </c>
       <c r="U44" t="n">
-        <v>2978.663997623959</v>
+        <v>2705.16163917983</v>
       </c>
       <c r="V44" t="n">
-        <v>2978.663997623959</v>
+        <v>2627.440487390725</v>
       </c>
       <c r="W44" t="n">
-        <v>2978.663997623959</v>
+        <v>2222.585032801758</v>
       </c>
       <c r="X44" t="n">
-        <v>2559.52153420327</v>
+        <v>2222.585032801758</v>
       </c>
       <c r="Y44" t="n">
         <v>2222.585032801758</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>558.5636315657305</v>
+        <v>562.1533380346312</v>
       </c>
       <c r="C45" t="n">
-        <v>452.1071704023728</v>
+        <v>455.6968768712736</v>
       </c>
       <c r="D45" t="n">
-        <v>357.0168815489261</v>
+        <v>360.6065880178268</v>
       </c>
       <c r="E45" t="n">
-        <v>262.8964668758798</v>
+        <v>266.4861733447805</v>
       </c>
       <c r="F45" t="n">
-        <v>179.5126284920414</v>
+        <v>183.1023349609421</v>
       </c>
       <c r="G45" t="n">
-        <v>94.89684112705433</v>
+        <v>98.1497356309718</v>
       </c>
       <c r="H45" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="I45" t="n">
-        <v>112.6145587788264</v>
+        <v>101.2489498138752</v>
       </c>
       <c r="J45" t="n">
-        <v>441.9722752950453</v>
+        <v>465.8550024162121</v>
       </c>
       <c r="K45" t="n">
-        <v>563.72565050315</v>
+        <v>534.3029476545576</v>
       </c>
       <c r="L45" t="n">
-        <v>727.4380887701793</v>
+        <v>626.3396570286046</v>
       </c>
       <c r="M45" t="n">
-        <v>918.4827824109487</v>
+        <v>733.7421557769877</v>
       </c>
       <c r="N45" t="n">
-        <v>1114.583860621161</v>
+        <v>843.9872790811311</v>
       </c>
       <c r="O45" t="n">
-        <v>1293.978035728151</v>
+        <v>944.8400287713429</v>
       </c>
       <c r="P45" t="n">
-        <v>1437.957676921363</v>
+        <v>1025.783251733211</v>
       </c>
       <c r="Q45" t="n">
-        <v>1534.204254101923</v>
+        <v>1565.925582547988</v>
       </c>
       <c r="R45" t="n">
-        <v>1698.190753559924</v>
+        <v>1709.416341813906</v>
       </c>
       <c r="S45" t="n">
-        <v>1649.024770095988</v>
+        <v>1653.994223824951</v>
       </c>
       <c r="T45" t="n">
-        <v>1521.946954834282</v>
+        <v>1525.558819985089</v>
       </c>
       <c r="U45" t="n">
-        <v>1345.6610198322</v>
+        <v>1349.2507263011</v>
       </c>
       <c r="V45" t="n">
-        <v>1146.543501894199</v>
+        <v>1150.1332083631</v>
       </c>
       <c r="W45" t="n">
-        <v>961.2207476273929</v>
+        <v>964.8104540962936</v>
       </c>
       <c r="X45" t="n">
-        <v>806.3533118662729</v>
+        <v>809.9430183351736</v>
       </c>
       <c r="Y45" t="n">
-        <v>679.8675326454936</v>
+        <v>683.4572391143944</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.874353306109</v>
+        <v>1125.158958727093</v>
       </c>
       <c r="C46" t="n">
-        <v>941.3126417893337</v>
+        <v>952.597247210318</v>
       </c>
       <c r="D46" t="n">
-        <v>775.4346489908564</v>
+        <v>786.7192544118407</v>
       </c>
       <c r="E46" t="n">
-        <v>605.6766452415937</v>
+        <v>616.961250662578</v>
       </c>
       <c r="F46" t="n">
-        <v>428.96959120335</v>
+        <v>440.2541966243342</v>
       </c>
       <c r="G46" t="n">
-        <v>264.0232734926624</v>
+        <v>275.0255070764519</v>
       </c>
       <c r="H46" t="n">
-        <v>129.8553555802021</v>
+        <v>138.3470468296598</v>
       </c>
       <c r="I46" t="n">
-        <v>60.59103024222131</v>
+        <v>60.59103024222132</v>
       </c>
       <c r="J46" t="n">
-        <v>105.2820990478842</v>
+        <v>172.2953727318074</v>
       </c>
       <c r="K46" t="n">
-        <v>453.4817082205849</v>
+        <v>488.3413572775056</v>
       </c>
       <c r="L46" t="n">
-        <v>965.6709829739917</v>
+        <v>959.3850626138546</v>
       </c>
       <c r="M46" t="n">
-        <v>1524.242943174841</v>
+        <v>1474.574788898945</v>
       </c>
       <c r="N46" t="n">
-        <v>2063.233745973186</v>
+        <v>1971.214890339987</v>
       </c>
       <c r="O46" t="n">
-        <v>2572.250653394987</v>
+        <v>2441.114070398671</v>
       </c>
       <c r="P46" t="n">
-        <v>2946.646799923171</v>
+        <v>2831.601347685255</v>
       </c>
       <c r="Q46" t="n">
-        <v>2999.578448986944</v>
+        <v>3029.551512111066</v>
       </c>
       <c r="R46" t="n">
-        <v>3007.009373686576</v>
+        <v>3024.436850074898</v>
       </c>
       <c r="S46" t="n">
-        <v>2859.007851112758</v>
+        <v>2871.514356483785</v>
       </c>
       <c r="T46" t="n">
-        <v>2615.884131180649</v>
+        <v>2627.184138701843</v>
       </c>
       <c r="U46" t="n">
-        <v>2337.486309920853</v>
+        <v>2348.770915341837</v>
       </c>
       <c r="V46" t="n">
-        <v>2050.530801791284</v>
+        <v>2061.815407212268</v>
       </c>
       <c r="W46" t="n">
-        <v>1778.504397377575</v>
+        <v>1789.78900279856</v>
       </c>
       <c r="X46" t="n">
-        <v>1533.112642710988</v>
+        <v>1544.397248131972</v>
       </c>
       <c r="Y46" t="n">
-        <v>1305.692972025096</v>
+        <v>1316.97757744608</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>655.5945030336998</v>
+        <v>655.5945030336997</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>184.4928068174606</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>184.4928068174613</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>609.2997049971184</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>89.42569947023185</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>655.5945030336998</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>631.1041951616859</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>208.9831146894753</v>
       </c>
       <c r="P14" t="n">
-        <v>184.4928068174613</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R15" t="n">
-        <v>89.42569947023185</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>655.5945030336998</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>197.7747701358703</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>642.3125397152908</v>
+        <v>184.4928068174613</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>490.9433634876846</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>646.0291676195409</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>317.4341718489616</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>197.7747701358708</v>
+        <v>197.7747701358701</v>
       </c>
       <c r="P20" t="n">
         <v>642.3125397152908</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.943363487685</v>
+        <v>490.9433634876846</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9579,7 +9579,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>197.7747701358704</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>14.86932499815461</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>622.5566445851078</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>642.3125397152908</v>
@@ -9716,7 +9716,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>172.750887753207</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>646.0291676195408</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>655.5945030336994</v>
+        <v>197.7747701358704</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>642.3125397152909</v>
+        <v>642.3125397152908</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.19924281792282</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>490.943363487685</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821537</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>655.5945030336997</v>
+        <v>217.5306652660535</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>622.5566445851077</v>
       </c>
       <c r="P29" t="n">
-        <v>624.1440062648535</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>490.943363487685</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>14.86932499815458</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>614.5992701162165</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>22.82669946704618</v>
+        <v>622.5566445851078</v>
       </c>
       <c r="P32" t="n">
         <v>642.3125397152908</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>490.9433634876847</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>490.943363487685</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10521,13 +10521,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>197.7747701358705</v>
+        <v>197.7747701358714</v>
       </c>
       <c r="P35" t="n">
-        <v>642.3125397152908</v>
+        <v>642.312539715291</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>63.09875688391139</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908085</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>655.5945030336994</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>197.7747701358707</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>642.3125397152909</v>
+        <v>184.492806817462</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>490.9433634876848</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>490.943363487685</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908119</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>637.4259695832623</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>14.86932499815475</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>622.5566445851077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>642.3125397152908</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908085</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>576.3205437755059</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>197.7747701358708</v>
       </c>
       <c r="P44" t="n">
-        <v>98.04430082525414</v>
+        <v>642.3125397152908</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>260.7291809811138</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>490.943363487685</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11472,10 +11472,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>300.953322885425</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.34085009752971</v>
+        <v>362.215940579621</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,13 +22600,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>55.8783213536076</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.66873794568178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>362.215940579621</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -22849,7 +22849,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>117.9918023731512</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22947,10 +22947,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>33.58904338006383</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23029,19 +23029,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>420.0263850696435</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>121.3167858327879</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23199,7 +23199,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>23.65030257151105</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>178.660738064742</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>397.7397591818474</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>278.0434075022746</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.57991364897666</v>
+        <v>64.57991364897664</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>15.28812456455556</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>243.7935246877653</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>427.5718257036384</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>16.84030507938108</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>208.826451983351</v>
       </c>
       <c r="G20" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.57991364897666</v>
       </c>
       <c r="T20" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83740038258736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>216.788383665767</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>64.57991364897667</v>
       </c>
       <c r="T23" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5660605529466</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.2941192537888</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>271.8541851175027</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>283.6139831494471</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>47.26332745237943</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>310.9260829398111</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24934,7 +24934,7 @@
         <v>396.5836142728854</v>
       </c>
       <c r="H32" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>64.57991364897667</v>
       </c>
       <c r="T32" t="n">
-        <v>59.88781645953546</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>31.64037624677445</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>427.571825703638</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>175.4143179473301</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>148.6284025025605</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25402,13 +25402,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>226.6597643000666</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>64.57991364897667</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>62.72823121669472</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.5836142728854</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>278.0434075022746</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.57991364897667</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.3635095521018</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.5660605529466</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>20.25748673361102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.9604096955188</v>
+        <v>396.5836142728854</v>
       </c>
       <c r="H44" t="n">
-        <v>271.6610136243192</v>
+        <v>278.0434075022746</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.6354315146797</v>
+        <v>214.3635095521018</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5162041867572</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>282.0468402942977</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.63612607584668</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>483124.1646205739</v>
+        <v>483124.1646205738</v>
       </c>
     </row>
     <row r="4">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>518306.4556155969</v>
+        <v>518306.455615597</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>518306.455615597</v>
+        <v>518306.4556155969</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>504448.1134203959</v>
+        <v>518306.4556155969</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>188864.0313649232</v>
       </c>
       <c r="G2" t="n">
-        <v>188864.0313649232</v>
+        <v>188864.0313649231</v>
       </c>
       <c r="H2" t="n">
         <v>188864.0313649231</v>
@@ -26346,7 +26346,7 @@
         <v>188864.0313649231</v>
       </c>
       <c r="M2" t="n">
-        <v>188864.0313649231</v>
+        <v>188864.0313649232</v>
       </c>
       <c r="N2" t="n">
         <v>188864.0313649231</v>
@@ -26355,7 +26355,7 @@
         <v>188864.0313649231</v>
       </c>
       <c r="P2" t="n">
-        <v>189818.626690117</v>
+        <v>188864.0313649231</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186758.9208487136</v>
+        <v>186758.9208487138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22396.62920852712</v>
+        <v>22396.62920852717</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>103179.0149341024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,19 +26423,19 @@
         <v>60902.71586860553</v>
       </c>
       <c r="D4" t="n">
-        <v>60902.71586860554</v>
+        <v>60902.71586860553</v>
       </c>
       <c r="E4" t="n">
-        <v>46718.33856561083</v>
+        <v>46718.33856561081</v>
       </c>
       <c r="F4" t="n">
-        <v>46718.33856561083</v>
+        <v>46718.33856561084</v>
       </c>
       <c r="G4" t="n">
         <v>46718.33856561084</v>
       </c>
       <c r="H4" t="n">
-        <v>46718.33856561084</v>
+        <v>46718.33856561083</v>
       </c>
       <c r="I4" t="n">
         <v>46718.33856561084</v>
@@ -26447,10 +26447,10 @@
         <v>46718.33856561084</v>
       </c>
       <c r="L4" t="n">
-        <v>46718.33856561085</v>
+        <v>46718.33856561084</v>
       </c>
       <c r="M4" t="n">
-        <v>46718.33856561084</v>
+        <v>46718.33856561086</v>
       </c>
       <c r="N4" t="n">
         <v>46718.33856561084</v>
@@ -26459,7 +26459,7 @@
         <v>46718.33856561084</v>
       </c>
       <c r="P4" t="n">
-        <v>30471.96718429773</v>
+        <v>46718.33856561084</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>50388.67788301277</v>
+        <v>50388.67788301278</v>
       </c>
       <c r="F5" t="n">
         <v>50388.67788301277</v>
@@ -26502,7 +26502,7 @@
         <v>50388.67788301277</v>
       </c>
       <c r="M5" t="n">
-        <v>50388.67788301277</v>
+        <v>50388.67788301278</v>
       </c>
       <c r="N5" t="n">
         <v>50388.67788301277</v>
@@ -26511,7 +26511,7 @@
         <v>50388.67788301277</v>
       </c>
       <c r="P5" t="n">
-        <v>53768.16050492736</v>
+        <v>50388.67788301277</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189719.3247854556</v>
+        <v>-190214.2150140368</v>
       </c>
       <c r="C6" t="n">
-        <v>33980.37379858937</v>
+        <v>33485.48357000809</v>
       </c>
       <c r="D6" t="n">
-        <v>33980.37379858931</v>
+        <v>33485.48357000809</v>
       </c>
       <c r="E6" t="n">
-        <v>-95001.90593241403</v>
+        <v>-95397.95407531566</v>
       </c>
       <c r="F6" t="n">
-        <v>91757.01491629959</v>
+        <v>91360.96677339815</v>
       </c>
       <c r="G6" t="n">
-        <v>91757.01491629958</v>
+        <v>91360.96677339809</v>
       </c>
       <c r="H6" t="n">
-        <v>91757.01491629952</v>
+        <v>91360.96677339812</v>
       </c>
       <c r="I6" t="n">
-        <v>91757.01491629949</v>
+        <v>91360.96677339809</v>
       </c>
       <c r="J6" t="n">
-        <v>-82894.33380140661</v>
+        <v>-83290.38194430807</v>
       </c>
       <c r="K6" t="n">
-        <v>91757.01491629952</v>
+        <v>91360.96677339809</v>
       </c>
       <c r="L6" t="n">
-        <v>91757.01491629949</v>
+        <v>91360.96677339812</v>
       </c>
       <c r="M6" t="n">
-        <v>69360.3857077724</v>
+        <v>68964.33756487093</v>
       </c>
       <c r="N6" t="n">
-        <v>91757.01491629952</v>
+        <v>91360.96677339812</v>
       </c>
       <c r="O6" t="n">
-        <v>91757.01491629949</v>
+        <v>91360.96677339809</v>
       </c>
       <c r="P6" t="n">
-        <v>2399.484066789475</v>
+        <v>91360.96677339806</v>
       </c>
     </row>
   </sheetData>
@@ -26746,28 +26746,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332374</v>
       </c>
       <c r="F3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.059399033237</v>
       </c>
       <c r="G3" t="n">
         <v>199.0593990332372</v>
       </c>
       <c r="H3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332372</v>
       </c>
       <c r="I3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="J3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="K3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="L3" t="n">
-        <v>199.059399033237</v>
+        <v>199.0593990332371</v>
       </c>
       <c r="M3" t="n">
         <v>199.059399033237</v>
@@ -26779,7 +26779,7 @@
         <v>199.059399033237</v>
       </c>
       <c r="P3" t="n">
-        <v>354.0815376531729</v>
+        <v>199.059399033237</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>757.3878780277665</v>
@@ -26810,10 +26810,10 @@
         <v>757.3878780277665</v>
       </c>
       <c r="I4" t="n">
+        <v>757.3878780277664</v>
+      </c>
+      <c r="J4" t="n">
         <v>757.3878780277665</v>
-      </c>
-      <c r="J4" t="n">
-        <v>757.3878780277664</v>
       </c>
       <c r="K4" t="n">
         <v>757.3878780277665</v>
@@ -26822,16 +26822,16 @@
         <v>757.3878780277665</v>
       </c>
       <c r="M4" t="n">
+        <v>757.3878780277666</v>
+      </c>
+      <c r="N4" t="n">
+        <v>757.3878780277664</v>
+      </c>
+      <c r="O4" t="n">
         <v>757.3878780277665</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>757.3878780277665</v>
-      </c>
-      <c r="O4" t="n">
-        <v>757.3878780277664</v>
-      </c>
-      <c r="P4" t="n">
-        <v>757.3878780277664</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>199.0593990332372</v>
+        <v>199.0593990332374</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>155.0221386199358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>89.87267141990947</v>
+        <v>89.87267141990958</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>89.87267141990947</v>
+        <v>89.87267141990969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>89.87267141990947</v>
+        <v>89.87267141990958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8002387900833648</v>
+        <v>0.8002387900833656</v>
       </c>
       <c r="H11" t="n">
-        <v>8.195445508941262</v>
+        <v>8.195445508941271</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85120595468895</v>
+        <v>30.85120595468898</v>
       </c>
       <c r="J11" t="n">
-        <v>67.91926700983805</v>
+        <v>67.91926700983812</v>
       </c>
       <c r="K11" t="n">
-        <v>101.7933749940669</v>
+        <v>101.793374994067</v>
       </c>
       <c r="L11" t="n">
-        <v>126.2836828660807</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5149294492257</v>
+        <v>140.5149294492259</v>
       </c>
       <c r="N11" t="n">
-        <v>142.7886079115501</v>
+        <v>142.7886079115503</v>
       </c>
       <c r="O11" t="n">
-        <v>134.8312334426587</v>
+        <v>134.8312334426588</v>
       </c>
       <c r="P11" t="n">
-        <v>115.0753383124756</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q11" t="n">
-        <v>86.41678664261502</v>
+        <v>86.41678664261511</v>
       </c>
       <c r="R11" t="n">
-        <v>50.26799989757421</v>
+        <v>50.26799989757426</v>
       </c>
       <c r="S11" t="n">
-        <v>18.2354414290247</v>
+        <v>18.23544142902471</v>
       </c>
       <c r="T11" t="n">
-        <v>3.503045303589932</v>
+        <v>3.503045303589935</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06401910320666918</v>
+        <v>0.06401910320666925</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4281654998073403</v>
+        <v>0.4281654998073408</v>
       </c>
       <c r="H12" t="n">
-        <v>4.135177327086682</v>
+        <v>4.135177327086686</v>
       </c>
       <c r="I12" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161239</v>
       </c>
       <c r="J12" t="n">
-        <v>40.45225013749965</v>
+        <v>40.45225013749968</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459145</v>
+        <v>69.13933862459152</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509817</v>
+        <v>92.96637310509827</v>
       </c>
       <c r="M12" t="n">
-        <v>108.4873724731142</v>
+        <v>108.4873724731143</v>
       </c>
       <c r="N12" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082259</v>
       </c>
       <c r="O12" t="n">
-        <v>101.8714643335473</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461396</v>
+        <v>81.76083127461405</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.65495046663523</v>
+        <v>54.65495046663529</v>
       </c>
       <c r="R12" t="n">
-        <v>26.58381936523119</v>
+        <v>26.58381936523122</v>
       </c>
       <c r="S12" t="n">
-        <v>7.952986367035461</v>
+        <v>7.952986367035469</v>
       </c>
       <c r="T12" t="n">
-        <v>1.725807431240989</v>
+        <v>1.725807431240991</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02816878288206187</v>
+        <v>0.0281687828820619</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.358959572027149</v>
+        <v>0.3589595720271493</v>
       </c>
       <c r="H13" t="n">
-        <v>3.191476922205017</v>
+        <v>3.191476922205021</v>
       </c>
       <c r="I13" t="n">
-        <v>10.79489331150736</v>
+        <v>10.79489331150737</v>
       </c>
       <c r="J13" t="n">
-        <v>25.37844174231943</v>
+        <v>25.37844174231945</v>
       </c>
       <c r="K13" t="n">
-        <v>41.70457573188148</v>
+        <v>41.70457573188152</v>
       </c>
       <c r="L13" t="n">
-        <v>53.36749855392723</v>
+        <v>53.36749855392728</v>
       </c>
       <c r="M13" t="n">
-        <v>56.26854454967389</v>
+        <v>56.26854454967395</v>
       </c>
       <c r="N13" t="n">
-        <v>54.93060432666366</v>
+        <v>54.93060432666371</v>
       </c>
       <c r="O13" t="n">
-        <v>50.73730387161922</v>
+        <v>50.73730387161927</v>
       </c>
       <c r="P13" t="n">
-        <v>43.41452860226534</v>
+        <v>43.41452860226538</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.05796925401881</v>
+        <v>30.05796925401884</v>
       </c>
       <c r="R13" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587527</v>
       </c>
       <c r="S13" t="n">
-        <v>6.255686359782221</v>
+        <v>6.255686359782227</v>
       </c>
       <c r="T13" t="n">
-        <v>1.533736353206909</v>
+        <v>1.53373635320691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01957961301966269</v>
+        <v>0.01957961301966271</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8002387900833648</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H14" t="n">
-        <v>8.195445508941262</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I14" t="n">
-        <v>30.85120595468895</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J14" t="n">
-        <v>67.91926700983805</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K14" t="n">
-        <v>101.7933749940669</v>
+        <v>101.7933749940668</v>
       </c>
       <c r="L14" t="n">
-        <v>126.2836828660807</v>
+        <v>126.2836828660806</v>
       </c>
       <c r="M14" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N14" t="n">
-        <v>142.7886079115501</v>
+        <v>142.78860791155</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426587</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P14" t="n">
-        <v>115.0753383124756</v>
+        <v>115.0753383124755</v>
       </c>
       <c r="Q14" t="n">
-        <v>86.41678664261502</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R14" t="n">
-        <v>50.26799989757421</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S14" t="n">
-        <v>18.2354414290247</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T14" t="n">
-        <v>3.503045303589932</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06401910320666918</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4281654998073403</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H15" t="n">
-        <v>4.135177327086682</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I15" t="n">
-        <v>14.74166304161238</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J15" t="n">
-        <v>40.45225013749965</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459145</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L15" t="n">
-        <v>92.96637310509817</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M15" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N15" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082257</v>
       </c>
       <c r="O15" t="n">
         <v>101.8714643335473</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461396</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.65495046663523</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R15" t="n">
-        <v>26.58381936523119</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S15" t="n">
-        <v>7.952986367035461</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T15" t="n">
         <v>1.725807431240989</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02816878288206187</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.358959572027149</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H16" t="n">
-        <v>3.191476922205017</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I16" t="n">
-        <v>10.79489331150736</v>
+        <v>10.79489331150735</v>
       </c>
       <c r="J16" t="n">
-        <v>25.37844174231943</v>
+        <v>25.37844174231941</v>
       </c>
       <c r="K16" t="n">
-        <v>41.70457573188148</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L16" t="n">
-        <v>53.36749855392723</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M16" t="n">
-        <v>56.26854454967389</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N16" t="n">
-        <v>54.93060432666366</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O16" t="n">
-        <v>50.73730387161922</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P16" t="n">
-        <v>43.41452860226534</v>
+        <v>43.41452860226531</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.05796925401881</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R16" t="n">
-        <v>16.14012766587526</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S16" t="n">
-        <v>6.255686359782221</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T16" t="n">
-        <v>1.533736353206909</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01957961301966269</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8002387900833648</v>
+        <v>0.800238790083365</v>
       </c>
       <c r="H17" t="n">
-        <v>8.195445508941262</v>
+        <v>8.195445508941264</v>
       </c>
       <c r="I17" t="n">
-        <v>30.85120595468895</v>
+        <v>30.85120595468896</v>
       </c>
       <c r="J17" t="n">
         <v>67.91926700983805</v>
@@ -32256,10 +32256,10 @@
         <v>115.0753383124756</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.41678664261502</v>
+        <v>86.41678664261504</v>
       </c>
       <c r="R17" t="n">
-        <v>50.26799989757421</v>
+        <v>50.26799989757422</v>
       </c>
       <c r="S17" t="n">
         <v>18.2354414290247</v>
@@ -32268,7 +32268,7 @@
         <v>3.503045303589932</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06401910320666918</v>
+        <v>0.06401910320666919</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4281654998073403</v>
+        <v>0.4281654998073404</v>
       </c>
       <c r="H18" t="n">
-        <v>4.135177327086682</v>
+        <v>4.135177327086683</v>
       </c>
       <c r="I18" t="n">
         <v>14.74166304161238</v>
@@ -32317,10 +32317,10 @@
         <v>40.45225013749965</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459145</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L18" t="n">
-        <v>92.96637310509817</v>
+        <v>92.96637310509819</v>
       </c>
       <c r="M18" t="n">
         <v>108.4873724731142</v>
@@ -32332,22 +32332,22 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P18" t="n">
-        <v>81.76083127461396</v>
+        <v>81.76083127461398</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.65495046663523</v>
+        <v>54.65495046663524</v>
       </c>
       <c r="R18" t="n">
-        <v>26.58381936523119</v>
+        <v>26.5838193652312</v>
       </c>
       <c r="S18" t="n">
-        <v>7.952986367035461</v>
+        <v>7.952986367035462</v>
       </c>
       <c r="T18" t="n">
-        <v>1.725807431240989</v>
+        <v>1.72580743124099</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02816878288206187</v>
+        <v>0.02816878288206188</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.358959572027149</v>
       </c>
       <c r="H19" t="n">
-        <v>3.191476922205017</v>
+        <v>3.191476922205018</v>
       </c>
       <c r="I19" t="n">
         <v>10.79489331150736</v>
@@ -32402,16 +32402,16 @@
         <v>53.36749855392723</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26854454967389</v>
+        <v>56.2685445496739</v>
       </c>
       <c r="N19" t="n">
         <v>54.93060432666366</v>
       </c>
       <c r="O19" t="n">
-        <v>50.73730387161922</v>
+        <v>50.73730387161923</v>
       </c>
       <c r="P19" t="n">
-        <v>43.41452860226534</v>
+        <v>43.41452860226535</v>
       </c>
       <c r="Q19" t="n">
         <v>30.05796925401881</v>
@@ -32420,7 +32420,7 @@
         <v>16.14012766587526</v>
       </c>
       <c r="S19" t="n">
-        <v>6.255686359782221</v>
+        <v>6.255686359782222</v>
       </c>
       <c r="T19" t="n">
         <v>1.533736353206909</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8002387900833644</v>
+        <v>0.800238790083365</v>
       </c>
       <c r="H20" t="n">
-        <v>8.195445508941258</v>
+        <v>8.195445508941264</v>
       </c>
       <c r="I20" t="n">
-        <v>30.85120595468894</v>
+        <v>30.85120595468896</v>
       </c>
       <c r="J20" t="n">
-        <v>67.91926700983801</v>
+        <v>67.91926700983805</v>
       </c>
       <c r="K20" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L20" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M20" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O20" t="n">
-        <v>134.8312334426586</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P20" t="n">
-        <v>115.0753383124755</v>
+        <v>115.0753383124756</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.41678664261498</v>
+        <v>86.41678664261504</v>
       </c>
       <c r="R20" t="n">
-        <v>50.26799989757419</v>
+        <v>50.26799989757422</v>
       </c>
       <c r="S20" t="n">
-        <v>18.23544142902469</v>
+        <v>18.2354414290247</v>
       </c>
       <c r="T20" t="n">
-        <v>3.503045303589929</v>
+        <v>3.503045303589932</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666919</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4281654998073401</v>
+        <v>0.4281654998073404</v>
       </c>
       <c r="H21" t="n">
-        <v>4.13517732708668</v>
+        <v>4.135177327086683</v>
       </c>
       <c r="I21" t="n">
-        <v>14.74166304161237</v>
+        <v>14.74166304161238</v>
       </c>
       <c r="J21" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749965</v>
       </c>
       <c r="K21" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L21" t="n">
-        <v>92.96637310509813</v>
+        <v>92.96637310509819</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N21" t="n">
-        <v>111.3587104082257</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O21" t="n">
         <v>101.8714643335473</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461392</v>
+        <v>81.76083127461398</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.65495046663521</v>
+        <v>54.65495046663524</v>
       </c>
       <c r="R21" t="n">
-        <v>26.58381936523118</v>
+        <v>26.5838193652312</v>
       </c>
       <c r="S21" t="n">
-        <v>7.952986367035456</v>
+        <v>7.952986367035462</v>
       </c>
       <c r="T21" t="n">
-        <v>1.725807431240989</v>
+        <v>1.72580743124099</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02816878288206186</v>
+        <v>0.02816878288206188</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.358959572027149</v>
       </c>
       <c r="H22" t="n">
-        <v>3.191476922205016</v>
+        <v>3.191476922205018</v>
       </c>
       <c r="I22" t="n">
-        <v>10.79489331150735</v>
+        <v>10.79489331150736</v>
       </c>
       <c r="J22" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231943</v>
       </c>
       <c r="K22" t="n">
-        <v>41.70457573188146</v>
+        <v>41.70457573188148</v>
       </c>
       <c r="L22" t="n">
-        <v>53.36749855392719</v>
+        <v>53.36749855392723</v>
       </c>
       <c r="M22" t="n">
-        <v>56.26854454967386</v>
+        <v>56.2685445496739</v>
       </c>
       <c r="N22" t="n">
-        <v>54.93060432666363</v>
+        <v>54.93060432666366</v>
       </c>
       <c r="O22" t="n">
-        <v>50.73730387161918</v>
+        <v>50.73730387161923</v>
       </c>
       <c r="P22" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226535</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.05796925401879</v>
+        <v>30.05796925401881</v>
       </c>
       <c r="R22" t="n">
-        <v>16.14012766587525</v>
+        <v>16.14012766587526</v>
       </c>
       <c r="S22" t="n">
-        <v>6.255686359782217</v>
+        <v>6.255686359782222</v>
       </c>
       <c r="T22" t="n">
-        <v>1.533736353206908</v>
+        <v>1.533736353206909</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01957961301966268</v>
+        <v>0.01957961301966269</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8002387900833644</v>
+        <v>0.8002387900833645</v>
       </c>
       <c r="H23" t="n">
         <v>8.195445508941258</v>
@@ -32709,19 +32709,19 @@
         <v>30.85120595468894</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983801</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L23" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M23" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O23" t="n">
         <v>134.8312334426586</v>
@@ -32730,7 +32730,7 @@
         <v>115.0753383124755</v>
       </c>
       <c r="Q23" t="n">
-        <v>86.41678664261498</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R23" t="n">
         <v>50.26799989757419</v>
@@ -32739,10 +32739,10 @@
         <v>18.23544142902469</v>
       </c>
       <c r="T23" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J24" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K24" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L24" t="n">
         <v>92.96637310509813</v>
@@ -32806,7 +32806,7 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461392</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q24" t="n">
         <v>54.65495046663521</v>
@@ -32815,7 +32815,7 @@
         <v>26.58381936523118</v>
       </c>
       <c r="S24" t="n">
-        <v>7.952986367035456</v>
+        <v>7.952986367035457</v>
       </c>
       <c r="T24" t="n">
         <v>1.725807431240989</v>
@@ -32858,7 +32858,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H25" t="n">
         <v>3.191476922205016</v>
@@ -32867,34 +32867,34 @@
         <v>10.79489331150735</v>
       </c>
       <c r="J25" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K25" t="n">
         <v>41.70457573188146</v>
       </c>
       <c r="L25" t="n">
-        <v>53.36749855392719</v>
+        <v>53.3674985539272</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967387</v>
       </c>
       <c r="N25" t="n">
         <v>54.93060432666363</v>
       </c>
       <c r="O25" t="n">
-        <v>50.73730387161918</v>
+        <v>50.73730387161919</v>
       </c>
       <c r="P25" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226532</v>
       </c>
       <c r="Q25" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R25" t="n">
         <v>16.14012766587525</v>
       </c>
       <c r="S25" t="n">
-        <v>6.255686359782217</v>
+        <v>6.255686359782218</v>
       </c>
       <c r="T25" t="n">
         <v>1.533736353206908</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8002387900833644</v>
+        <v>0.8002387900833645</v>
       </c>
       <c r="H26" t="n">
         <v>8.195445508941258</v>
@@ -32946,19 +32946,19 @@
         <v>30.85120595468894</v>
       </c>
       <c r="J26" t="n">
-        <v>67.91926700983801</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L26" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M26" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N26" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O26" t="n">
         <v>134.8312334426586</v>
@@ -32967,7 +32967,7 @@
         <v>115.0753383124755</v>
       </c>
       <c r="Q26" t="n">
-        <v>86.41678664261498</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R26" t="n">
         <v>50.26799989757419</v>
@@ -32976,10 +32976,10 @@
         <v>18.23544142902469</v>
       </c>
       <c r="T26" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,10 +33025,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J27" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K27" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L27" t="n">
         <v>92.96637310509813</v>
@@ -33043,7 +33043,7 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461392</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q27" t="n">
         <v>54.65495046663521</v>
@@ -33052,7 +33052,7 @@
         <v>26.58381936523118</v>
       </c>
       <c r="S27" t="n">
-        <v>7.952986367035456</v>
+        <v>7.952986367035457</v>
       </c>
       <c r="T27" t="n">
         <v>1.725807431240989</v>
@@ -33095,7 +33095,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H28" t="n">
         <v>3.191476922205016</v>
@@ -33104,34 +33104,34 @@
         <v>10.79489331150735</v>
       </c>
       <c r="J28" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K28" t="n">
         <v>41.70457573188146</v>
       </c>
       <c r="L28" t="n">
-        <v>53.36749855392719</v>
+        <v>53.3674985539272</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967387</v>
       </c>
       <c r="N28" t="n">
         <v>54.93060432666363</v>
       </c>
       <c r="O28" t="n">
-        <v>50.73730387161918</v>
+        <v>50.73730387161919</v>
       </c>
       <c r="P28" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226532</v>
       </c>
       <c r="Q28" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R28" t="n">
         <v>16.14012766587525</v>
       </c>
       <c r="S28" t="n">
-        <v>6.255686359782217</v>
+        <v>6.255686359782218</v>
       </c>
       <c r="T28" t="n">
         <v>1.533736353206908</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8002387900833644</v>
+        <v>0.8002387900833645</v>
       </c>
       <c r="H29" t="n">
         <v>8.195445508941258</v>
@@ -33183,19 +33183,19 @@
         <v>30.85120595468894</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983801</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L29" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M29" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N29" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
         <v>134.8312334426586</v>
@@ -33204,7 +33204,7 @@
         <v>115.0753383124755</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.41678664261498</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R29" t="n">
         <v>50.26799989757419</v>
@@ -33213,10 +33213,10 @@
         <v>18.23544142902469</v>
       </c>
       <c r="T29" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,10 +33262,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J30" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K30" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L30" t="n">
         <v>92.96637310509813</v>
@@ -33280,7 +33280,7 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461392</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q30" t="n">
         <v>54.65495046663521</v>
@@ -33289,7 +33289,7 @@
         <v>26.58381936523118</v>
       </c>
       <c r="S30" t="n">
-        <v>7.952986367035456</v>
+        <v>7.952986367035457</v>
       </c>
       <c r="T30" t="n">
         <v>1.725807431240989</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H31" t="n">
         <v>3.191476922205016</v>
@@ -33341,34 +33341,34 @@
         <v>10.79489331150735</v>
       </c>
       <c r="J31" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K31" t="n">
         <v>41.70457573188146</v>
       </c>
       <c r="L31" t="n">
-        <v>53.36749855392719</v>
+        <v>53.3674985539272</v>
       </c>
       <c r="M31" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967387</v>
       </c>
       <c r="N31" t="n">
         <v>54.93060432666363</v>
       </c>
       <c r="O31" t="n">
-        <v>50.73730387161918</v>
+        <v>50.73730387161919</v>
       </c>
       <c r="P31" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226532</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R31" t="n">
         <v>16.14012766587525</v>
       </c>
       <c r="S31" t="n">
-        <v>6.255686359782217</v>
+        <v>6.255686359782218</v>
       </c>
       <c r="T31" t="n">
         <v>1.533736353206908</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8002387900833644</v>
+        <v>0.8002387900833645</v>
       </c>
       <c r="H32" t="n">
         <v>8.195445508941258</v>
@@ -33420,19 +33420,19 @@
         <v>30.85120595468894</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983801</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L32" t="n">
-        <v>126.2836828660806</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M32" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
-        <v>142.78860791155</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O32" t="n">
         <v>134.8312334426586</v>
@@ -33441,7 +33441,7 @@
         <v>115.0753383124755</v>
       </c>
       <c r="Q32" t="n">
-        <v>86.41678664261498</v>
+        <v>86.41678664261499</v>
       </c>
       <c r="R32" t="n">
         <v>50.26799989757419</v>
@@ -33450,10 +33450,10 @@
         <v>18.23544142902469</v>
       </c>
       <c r="T32" t="n">
-        <v>3.503045303589929</v>
+        <v>3.50304530358993</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06401910320666913</v>
+        <v>0.06401910320666915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,10 +33499,10 @@
         <v>14.74166304161237</v>
       </c>
       <c r="J33" t="n">
-        <v>40.45225013749962</v>
+        <v>40.45225013749963</v>
       </c>
       <c r="K33" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459142</v>
       </c>
       <c r="L33" t="n">
         <v>92.96637310509813</v>
@@ -33517,7 +33517,7 @@
         <v>101.8714643335473</v>
       </c>
       <c r="P33" t="n">
-        <v>81.76083127461392</v>
+        <v>81.76083127461393</v>
       </c>
       <c r="Q33" t="n">
         <v>54.65495046663521</v>
@@ -33526,7 +33526,7 @@
         <v>26.58381936523118</v>
       </c>
       <c r="S33" t="n">
-        <v>7.952986367035456</v>
+        <v>7.952986367035457</v>
       </c>
       <c r="T33" t="n">
         <v>1.725807431240989</v>
@@ -33569,7 +33569,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3589595720271487</v>
+        <v>0.3589595720271488</v>
       </c>
       <c r="H34" t="n">
         <v>3.191476922205016</v>
@@ -33578,34 +33578,34 @@
         <v>10.79489331150735</v>
       </c>
       <c r="J34" t="n">
-        <v>25.37844174231941</v>
+        <v>25.37844174231942</v>
       </c>
       <c r="K34" t="n">
         <v>41.70457573188146</v>
       </c>
       <c r="L34" t="n">
-        <v>53.36749855392719</v>
+        <v>53.3674985539272</v>
       </c>
       <c r="M34" t="n">
-        <v>56.26854454967386</v>
+        <v>56.26854454967387</v>
       </c>
       <c r="N34" t="n">
         <v>54.93060432666363</v>
       </c>
       <c r="O34" t="n">
-        <v>50.73730387161918</v>
+        <v>50.73730387161919</v>
       </c>
       <c r="P34" t="n">
-        <v>43.41452860226531</v>
+        <v>43.41452860226532</v>
       </c>
       <c r="Q34" t="n">
-        <v>30.05796925401879</v>
+        <v>30.0579692540188</v>
       </c>
       <c r="R34" t="n">
         <v>16.14012766587525</v>
       </c>
       <c r="S34" t="n">
-        <v>6.255686359782217</v>
+        <v>6.255686359782218</v>
       </c>
       <c r="T34" t="n">
         <v>1.533736353206908</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.42344336744994</v>
+        <v>0.8002387900833644</v>
       </c>
       <c r="H44" t="n">
-        <v>14.5778393868967</v>
+        <v>8.195445508941258</v>
       </c>
       <c r="I44" t="n">
-        <v>54.87730042361387</v>
+        <v>30.85120595468894</v>
       </c>
       <c r="J44" t="n">
-        <v>120.8129765081045</v>
+        <v>67.91926700983801</v>
       </c>
       <c r="K44" t="n">
-        <v>181.0673342522605</v>
+        <v>101.7933749940668</v>
       </c>
       <c r="L44" t="n">
-        <v>224.6300392088566</v>
+        <v>126.2836828660806</v>
       </c>
       <c r="M44" t="n">
-        <v>249.9442001947445</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N44" t="n">
-        <v>253.9885586625116</v>
+        <v>142.78860791155</v>
       </c>
       <c r="O44" t="n">
-        <v>239.8341936774313</v>
+        <v>134.8312334426586</v>
       </c>
       <c r="P44" t="n">
-        <v>204.6929355435109</v>
+        <v>115.0753383124755</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.7158699467098</v>
+        <v>86.41678664261498</v>
       </c>
       <c r="R44" t="n">
-        <v>89.41537443057737</v>
+        <v>50.26799989757419</v>
       </c>
       <c r="S44" t="n">
-        <v>32.43671573576554</v>
+        <v>18.23544142902469</v>
       </c>
       <c r="T44" t="n">
-        <v>6.231123341012116</v>
+        <v>3.503045303589929</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1138754693959952</v>
+        <v>0.06401910320666913</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7616093451407869</v>
+        <v>0.4281654998073401</v>
       </c>
       <c r="H45" t="n">
-        <v>7.35554288596497</v>
+        <v>4.13517732708668</v>
       </c>
       <c r="I45" t="n">
-        <v>26.22207613752271</v>
+        <v>14.74166304161237</v>
       </c>
       <c r="J45" t="n">
-        <v>71.95538115648111</v>
+        <v>40.45225013749962</v>
       </c>
       <c r="K45" t="n">
-        <v>122.9832072809138</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L45" t="n">
-        <v>165.3660992596257</v>
+        <v>92.96637310509813</v>
       </c>
       <c r="M45" t="n">
-        <v>192.9744380209792</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
-        <v>198.081897182033</v>
+        <v>111.3587104082257</v>
       </c>
       <c r="O45" t="n">
-        <v>181.2062374818082</v>
+        <v>101.8714643335473</v>
       </c>
       <c r="P45" t="n">
-        <v>145.4339810032438</v>
+        <v>81.76083127461392</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.21876482884853</v>
+        <v>54.65495046663521</v>
       </c>
       <c r="R45" t="n">
-        <v>47.28658723602186</v>
+        <v>26.58381936523118</v>
       </c>
       <c r="S45" t="n">
-        <v>14.14655954680364</v>
+        <v>7.952986367035456</v>
       </c>
       <c r="T45" t="n">
-        <v>3.069820123615715</v>
+        <v>1.725807431240989</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05010587796978863</v>
+        <v>0.02816878288206186</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6385076908499837</v>
+        <v>0.3589595720271487</v>
       </c>
       <c r="H46" t="n">
-        <v>5.676913833193496</v>
+        <v>3.191476922205016</v>
       </c>
       <c r="I46" t="n">
-        <v>19.20166764847043</v>
+        <v>10.79489331150735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.14249374309385</v>
+        <v>25.37844174231941</v>
       </c>
       <c r="K46" t="n">
-        <v>74.18298444602537</v>
+        <v>41.70457573188146</v>
       </c>
       <c r="L46" t="n">
-        <v>94.92867978327851</v>
+        <v>53.36749855392719</v>
       </c>
       <c r="M46" t="n">
-        <v>100.0889828484206</v>
+        <v>56.26854454967386</v>
       </c>
       <c r="N46" t="n">
-        <v>97.70909054616168</v>
+        <v>54.93060432666363</v>
       </c>
       <c r="O46" t="n">
-        <v>90.25015979395955</v>
+        <v>50.73730387161918</v>
       </c>
       <c r="P46" t="n">
-        <v>77.22460290061983</v>
+        <v>43.41452860226531</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.4663121856291</v>
+        <v>30.05796925401879</v>
       </c>
       <c r="R46" t="n">
-        <v>28.70962762676381</v>
+        <v>16.14012766587525</v>
       </c>
       <c r="S46" t="n">
-        <v>11.1274476669038</v>
+        <v>6.255686359782217</v>
       </c>
       <c r="T46" t="n">
-        <v>2.728169224540839</v>
+        <v>1.533736353206908</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03482769222818097</v>
+        <v>0.01957961301966268</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.43858447555755</v>
+        <v>30.43858447555758</v>
       </c>
       <c r="J11" t="n">
         <v>507.5704664572299</v>
@@ -35415,19 +35415,19 @@
         <v>757.3878780277666</v>
       </c>
       <c r="L11" t="n">
-        <v>126.2836828660807</v>
+        <v>310.7764896835415</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5149294492257</v>
+        <v>140.514929449226</v>
       </c>
       <c r="N11" t="n">
-        <v>142.7886079115501</v>
+        <v>142.7886079115503</v>
       </c>
       <c r="O11" t="n">
         <v>134.8312334426587</v>
       </c>
       <c r="P11" t="n">
-        <v>299.568145129937</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q11" t="n">
         <v>638.4357623583674</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.74166304161238</v>
+        <v>41.0686056279332</v>
       </c>
       <c r="J12" t="n">
         <v>368.2889420225627</v>
       </c>
       <c r="K12" t="n">
-        <v>69.13933862459146</v>
+        <v>678.4390436217099</v>
       </c>
       <c r="L12" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M12" t="n">
-        <v>108.4873724731142</v>
+        <v>108.4873724731144</v>
       </c>
       <c r="N12" t="n">
         <v>111.3587104082258</v>
       </c>
       <c r="O12" t="n">
-        <v>101.8714643335474</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P12" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q12" t="n">
-        <v>600.8558985798429</v>
+        <v>54.65495046663523</v>
       </c>
       <c r="R12" t="n">
-        <v>116.009518835463</v>
+        <v>26.58381936523119</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,10 +35570,10 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K13" t="n">
-        <v>319.2383682279781</v>
+        <v>319.2383682279778</v>
       </c>
       <c r="L13" t="n">
-        <v>475.8017225619688</v>
+        <v>475.801722561969</v>
       </c>
       <c r="M13" t="n">
         <v>520.3936629142326</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.43858447555755</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J14" t="n">
-        <v>507.5704664572299</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K14" t="n">
-        <v>757.3878780277666</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L14" t="n">
-        <v>126.2836828660807</v>
+        <v>757.3878780277665</v>
       </c>
       <c r="M14" t="n">
         <v>140.5149294492257</v>
@@ -35661,10 +35661,10 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O14" t="n">
-        <v>134.8312334426587</v>
+        <v>343.814348132134</v>
       </c>
       <c r="P14" t="n">
-        <v>299.568145129937</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q14" t="n">
         <v>638.4357623583674</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.74166304161238</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J15" t="n">
-        <v>368.2889420225627</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K15" t="n">
-        <v>69.13933862459146</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L15" t="n">
         <v>92.96637310509811</v>
@@ -35737,19 +35737,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N15" t="n">
-        <v>111.3587104082258</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O15" t="n">
-        <v>101.8714643335474</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P15" t="n">
-        <v>81.76083127461391</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q15" t="n">
-        <v>600.8558985798429</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R15" t="n">
-        <v>116.009518835463</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>112.8326691814001</v>
+        <v>112.8326691814</v>
       </c>
       <c r="K16" t="n">
-        <v>319.2383682279781</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L16" t="n">
-        <v>475.8017225619688</v>
+        <v>475.8017225619686</v>
       </c>
       <c r="M16" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N16" t="n">
         <v>501.6566681222641</v>
       </c>
       <c r="O16" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P16" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q16" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43858447555755</v>
+        <v>30.43858447555756</v>
       </c>
       <c r="J17" t="n">
         <v>507.5704664572299</v>
       </c>
       <c r="K17" t="n">
-        <v>101.7933749940669</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="L17" t="n">
         <v>126.2836828660807</v>
@@ -35898,10 +35898,10 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O17" t="n">
-        <v>332.606003578529</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P17" t="n">
-        <v>757.3878780277664</v>
+        <v>299.568145129937</v>
       </c>
       <c r="Q17" t="n">
         <v>638.4357623583674</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>14.74166304161238</v>
+        <v>41.06860562793319</v>
       </c>
       <c r="J18" t="n">
-        <v>40.45225013749965</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K18" t="n">
-        <v>69.13933862459149</v>
+        <v>560.082702112276</v>
       </c>
       <c r="L18" t="n">
-        <v>92.9663731050982</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M18" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N18" t="n">
-        <v>757.3878780277666</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O18" t="n">
-        <v>419.3056361825088</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P18" t="n">
         <v>81.76083127461402</v>
@@ -35986,7 +35986,7 @@
         <v>54.65495046663523</v>
       </c>
       <c r="R18" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K19" t="n">
-        <v>319.2383682279781</v>
+        <v>319.2383682279782</v>
       </c>
       <c r="L19" t="n">
-        <v>475.8017225619687</v>
+        <v>475.8017225619683</v>
       </c>
       <c r="M19" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N19" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O19" t="n">
         <v>474.6456364229136</v>
       </c>
       <c r="P19" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q19" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30.43858447555754</v>
+        <v>30.43858447555756</v>
       </c>
       <c r="J20" t="n">
-        <v>507.5704664572298</v>
+        <v>507.5704664572299</v>
       </c>
       <c r="K20" t="n">
         <v>101.7933749940669</v>
       </c>
       <c r="L20" t="n">
-        <v>126.2836828660807</v>
+        <v>126.2836828660808</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N20" t="n">
-        <v>142.7886079115501</v>
+        <v>142.7886079115502</v>
       </c>
       <c r="O20" t="n">
-        <v>332.6060035785292</v>
+        <v>332.6060035785288</v>
       </c>
       <c r="P20" t="n">
         <v>757.3878780277664</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>41.06860562793317</v>
+        <v>41.06860562793319</v>
       </c>
       <c r="J21" t="n">
-        <v>368.2889420225625</v>
+        <v>368.2889420225627</v>
       </c>
       <c r="K21" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L21" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M21" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N21" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O21" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P21" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q21" t="n">
-        <v>545.5983139543202</v>
+        <v>545.5983139543198</v>
       </c>
       <c r="R21" t="n">
         <v>144.9401608746653</v>
@@ -36281,25 +36281,25 @@
         <v>112.8326691814001</v>
       </c>
       <c r="K22" t="n">
-        <v>319.238368227978</v>
+        <v>319.2383682279781</v>
       </c>
       <c r="L22" t="n">
         <v>475.8017225619687</v>
       </c>
       <c r="M22" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N22" t="n">
         <v>501.6566681222644</v>
       </c>
       <c r="O22" t="n">
-        <v>474.6456364229132</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P22" t="n">
         <v>394.4315932187724</v>
       </c>
       <c r="Q22" t="n">
-        <v>199.949661036173</v>
+        <v>199.9496610361721</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>30.43858447555754</v>
       </c>
       <c r="J23" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K23" t="n">
-        <v>101.7933749940668</v>
+        <v>299.5681451299373</v>
       </c>
       <c r="L23" t="n">
         <v>126.2836828660807</v>
@@ -36369,16 +36369,16 @@
         <v>140.5149294492257</v>
       </c>
       <c r="N23" t="n">
-        <v>157.6579329097046</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O23" t="n">
-        <v>757.3878780277665</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P23" t="n">
         <v>757.3878780277664</v>
       </c>
       <c r="Q23" t="n">
-        <v>638.4357623583674</v>
+        <v>638.4357623583669</v>
       </c>
       <c r="R23" t="n">
         <v>221.1306915673285</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>41.06860562793317</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J24" t="n">
-        <v>213.2031378907066</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K24" t="n">
-        <v>69.1393386245914</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L24" t="n">
         <v>92.96637310509811</v>
@@ -36448,16 +36448,16 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N24" t="n">
-        <v>757.3878780277665</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O24" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P24" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.65495046663523</v>
+        <v>545.59831395432</v>
       </c>
       <c r="R24" t="n">
         <v>144.9401608746653</v>
@@ -36524,16 +36524,16 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M25" t="n">
-        <v>520.3936629142327</v>
+        <v>520.3936629142324</v>
       </c>
       <c r="N25" t="n">
-        <v>501.6566681222644</v>
+        <v>501.6566681222641</v>
       </c>
       <c r="O25" t="n">
         <v>474.6456364229134</v>
       </c>
       <c r="P25" t="n">
-        <v>394.4315932187719</v>
+        <v>394.4315932187724</v>
       </c>
       <c r="Q25" t="n">
         <v>199.9496610361725</v>
@@ -36597,7 +36597,7 @@
         <v>507.5704664572298</v>
       </c>
       <c r="K26" t="n">
-        <v>757.3878780277663</v>
+        <v>299.5681451299373</v>
       </c>
       <c r="L26" t="n">
         <v>126.2836828660807</v>
@@ -36615,7 +36615,7 @@
         <v>757.3878780277664</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6160294605379</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R26" t="n">
         <v>221.1306915673285</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>41.06860562793327</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J27" t="n">
-        <v>368.2889420225627</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K27" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L27" t="n">
-        <v>92.96637310509823</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M27" t="n">
         <v>108.4873724731142</v>
@@ -36688,10 +36688,10 @@
         <v>111.3587104082258</v>
       </c>
       <c r="O27" t="n">
-        <v>101.8714643335475</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P27" t="n">
-        <v>81.76083127461379</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q27" t="n">
         <v>545.59831395432</v>
@@ -36761,19 +36761,19 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M28" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N28" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O28" t="n">
         <v>474.6456364229134</v>
       </c>
       <c r="P28" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q28" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>30.43858447555754</v>
       </c>
       <c r="J29" t="n">
-        <v>67.91926700983799</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K29" t="n">
-        <v>757.3878780277665</v>
+        <v>319.3240402601203</v>
       </c>
       <c r="L29" t="n">
-        <v>126.2836828660805</v>
+        <v>126.2836828660807</v>
       </c>
       <c r="M29" t="n">
         <v>140.5149294492257</v>
@@ -36846,10 +36846,10 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O29" t="n">
-        <v>134.8312334426587</v>
+        <v>757.3878780277664</v>
       </c>
       <c r="P29" t="n">
-        <v>739.2193445773291</v>
+        <v>115.0753383124757</v>
       </c>
       <c r="Q29" t="n">
         <v>638.4357623583674</v>
@@ -36913,7 +36913,7 @@
         <v>368.2889420225625</v>
       </c>
       <c r="K30" t="n">
-        <v>69.13933862459135</v>
+        <v>69.13933862459146</v>
       </c>
       <c r="L30" t="n">
         <v>92.96637310509811</v>
@@ -36922,16 +36922,16 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N30" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O30" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P30" t="n">
-        <v>81.76083127461402</v>
+        <v>81.76083127461391</v>
       </c>
       <c r="Q30" t="n">
-        <v>545.5983139543202</v>
+        <v>545.59831395432</v>
       </c>
       <c r="R30" t="n">
         <v>144.9401608746653</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>112.8326691813998</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K31" t="n">
-        <v>319.2383682279778</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L31" t="n">
         <v>475.8017225619687</v>
@@ -37001,13 +37001,13 @@
         <v>520.3936629142327</v>
       </c>
       <c r="N31" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O31" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P31" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q31" t="n">
         <v>199.949661036173</v>
@@ -37068,22 +37068,22 @@
         <v>30.43858447555754</v>
       </c>
       <c r="J32" t="n">
-        <v>67.91926700983799</v>
+        <v>67.91926700983802</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7933749940668</v>
+        <v>101.7933749940669</v>
       </c>
       <c r="L32" t="n">
-        <v>126.2836828660807</v>
+        <v>141.1530078642352</v>
       </c>
       <c r="M32" t="n">
         <v>140.5149294492257</v>
       </c>
       <c r="N32" t="n">
+        <v>142.78860791155</v>
+      </c>
+      <c r="O32" t="n">
         <v>757.3878780277665</v>
-      </c>
-      <c r="O32" t="n">
-        <v>157.6579329097046</v>
       </c>
       <c r="P32" t="n">
         <v>757.3878780277664</v>
@@ -37150,16 +37150,16 @@
         <v>368.2889420225625</v>
       </c>
       <c r="K33" t="n">
-        <v>69.13933862459135</v>
+        <v>560.0827021122761</v>
       </c>
       <c r="L33" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M33" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N33" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O33" t="n">
         <v>101.8714643335472</v>
@@ -37168,7 +37168,7 @@
         <v>81.76083127461402</v>
       </c>
       <c r="Q33" t="n">
-        <v>545.5983139543202</v>
+        <v>54.65495046663523</v>
       </c>
       <c r="R33" t="n">
         <v>144.9401608746653</v>
@@ -37235,16 +37235,16 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M34" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N34" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O34" t="n">
-        <v>474.6456364229139</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P34" t="n">
-        <v>394.4315932187724</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q34" t="n">
         <v>199.9496610361725</v>
@@ -37320,13 +37320,13 @@
         <v>142.7886079115501</v>
       </c>
       <c r="O35" t="n">
-        <v>332.6060035785292</v>
+        <v>332.6060035785299</v>
       </c>
       <c r="P35" t="n">
-        <v>757.3878780277664</v>
+        <v>757.3878780277666</v>
       </c>
       <c r="Q35" t="n">
-        <v>638.4357623583674</v>
+        <v>638.4357623583669</v>
       </c>
       <c r="R35" t="n">
         <v>221.1306915673285</v>
@@ -37384,10 +37384,10 @@
         <v>41.06860562793317</v>
       </c>
       <c r="J36" t="n">
-        <v>368.2889420225625</v>
+        <v>368.2889420225626</v>
       </c>
       <c r="K36" t="n">
-        <v>132.2380955085029</v>
+        <v>69.1393386245914</v>
       </c>
       <c r="L36" t="n">
         <v>92.96637310509811</v>
@@ -37396,19 +37396,19 @@
         <v>108.4873724731142</v>
       </c>
       <c r="N36" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O36" t="n">
-        <v>101.8714643335472</v>
+        <v>101.8714643335474</v>
       </c>
       <c r="P36" t="n">
         <v>81.76083127461391</v>
       </c>
       <c r="Q36" t="n">
-        <v>600.8558985798429</v>
+        <v>545.59831395432</v>
       </c>
       <c r="R36" t="n">
-        <v>26.58381936523119</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>112.8326691814003</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K37" t="n">
         <v>319.238368227978</v>
@@ -37472,7 +37472,7 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M37" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N37" t="n">
         <v>501.6566681222641</v>
@@ -37484,7 +37484,7 @@
         <v>394.4315932187724</v>
       </c>
       <c r="Q37" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>507.5704664572298</v>
       </c>
       <c r="K38" t="n">
-        <v>101.7933749940669</v>
+        <v>757.3878780277663</v>
       </c>
       <c r="L38" t="n">
         <v>126.2836828660807</v>
       </c>
       <c r="M38" t="n">
-        <v>140.5149294492256</v>
+        <v>140.5149294492257</v>
       </c>
       <c r="N38" t="n">
         <v>142.7886079115501</v>
       </c>
       <c r="O38" t="n">
-        <v>332.6060035785292</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P38" t="n">
-        <v>757.3878780277664</v>
+        <v>299.5681451299374</v>
       </c>
       <c r="Q38" t="n">
-        <v>638.4357623583674</v>
+        <v>638.4357623583669</v>
       </c>
       <c r="R38" t="n">
         <v>221.1306915673285</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41.06860562793317</v>
+        <v>41.06860562793318</v>
       </c>
       <c r="J39" t="n">
         <v>368.2889420225625</v>
       </c>
       <c r="K39" t="n">
-        <v>69.13933862459135</v>
+        <v>560.0827021122761</v>
       </c>
       <c r="L39" t="n">
-        <v>92.96637310509811</v>
+        <v>92.96637310509823</v>
       </c>
       <c r="M39" t="n">
         <v>108.4873724731142</v>
       </c>
       <c r="N39" t="n">
-        <v>111.3587104082256</v>
+        <v>111.3587104082258</v>
       </c>
       <c r="O39" t="n">
         <v>101.8714643335472</v>
@@ -37642,7 +37642,7 @@
         <v>81.76083127461402</v>
       </c>
       <c r="Q39" t="n">
-        <v>545.5983139543202</v>
+        <v>54.65495046663523</v>
       </c>
       <c r="R39" t="n">
         <v>144.9401608746653</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>112.8326691814006</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K40" t="n">
         <v>319.238368227978</v>
@@ -37709,10 +37709,10 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M40" t="n">
-        <v>520.3936629142324</v>
+        <v>520.3936629142322</v>
       </c>
       <c r="N40" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O40" t="n">
         <v>474.6456364229134</v>
@@ -37779,10 +37779,10 @@
         <v>30.43858447555754</v>
       </c>
       <c r="J41" t="n">
-        <v>67.91926700983801</v>
+        <v>67.91926700983799</v>
       </c>
       <c r="K41" t="n">
-        <v>101.7933749940668</v>
+        <v>739.2193445773291</v>
       </c>
       <c r="L41" t="n">
         <v>126.2836828660807</v>
@@ -37791,16 +37791,16 @@
         <v>140.5149294492257</v>
       </c>
       <c r="N41" t="n">
-        <v>157.6579329097048</v>
+        <v>142.7886079115501</v>
       </c>
       <c r="O41" t="n">
-        <v>757.3878780277664</v>
+        <v>134.8312334426587</v>
       </c>
       <c r="P41" t="n">
         <v>757.3878780277664</v>
       </c>
       <c r="Q41" t="n">
-        <v>638.4357623583669</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R41" t="n">
         <v>221.1306915673285</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.06860562793318</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J42" t="n">
         <v>368.2889420225625</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>112.8326691814003</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K43" t="n">
         <v>319.238368227978</v>
@@ -37946,19 +37946,19 @@
         <v>475.8017225619687</v>
       </c>
       <c r="M43" t="n">
-        <v>520.3936629142326</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N43" t="n">
-        <v>501.6566681222641</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O43" t="n">
-        <v>474.6456364229136</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P43" t="n">
         <v>394.4315932187719</v>
       </c>
       <c r="Q43" t="n">
-        <v>199.9496610361725</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>54.46467894448247</v>
+        <v>30.43858447555754</v>
       </c>
       <c r="J44" t="n">
-        <v>120.8129765081045</v>
+        <v>507.5704664572298</v>
       </c>
       <c r="K44" t="n">
+        <v>101.7933749940669</v>
+      </c>
+      <c r="L44" t="n">
+        <v>126.2836828660807</v>
+      </c>
+      <c r="M44" t="n">
+        <v>140.5149294492256</v>
+      </c>
+      <c r="N44" t="n">
+        <v>142.7886079115501</v>
+      </c>
+      <c r="O44" t="n">
+        <v>332.6060035785292</v>
+      </c>
+      <c r="P44" t="n">
         <v>757.3878780277664</v>
       </c>
-      <c r="L44" t="n">
-        <v>224.6300392088565</v>
-      </c>
-      <c r="M44" t="n">
-        <v>249.9442001947446</v>
-      </c>
-      <c r="N44" t="n">
-        <v>253.9885586625117</v>
-      </c>
-      <c r="O44" t="n">
-        <v>239.8341936774314</v>
-      </c>
-      <c r="P44" t="n">
-        <v>302.7372363687648</v>
-      </c>
       <c r="Q44" t="n">
-        <v>705.7348456624622</v>
+        <v>638.4357623583674</v>
       </c>
       <c r="R44" t="n">
-        <v>89.41537443057723</v>
+        <v>221.1306915673285</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.54901872384352</v>
+        <v>41.06860562793317</v>
       </c>
       <c r="J45" t="n">
-        <v>332.6845621375949</v>
+        <v>368.2889420225625</v>
       </c>
       <c r="K45" t="n">
-        <v>122.9832072809138</v>
+        <v>69.13933862459135</v>
       </c>
       <c r="L45" t="n">
-        <v>165.3660992596257</v>
+        <v>92.96637310509811</v>
       </c>
       <c r="M45" t="n">
-        <v>192.9744380209792</v>
+        <v>108.4873724731142</v>
       </c>
       <c r="N45" t="n">
-        <v>198.081897182033</v>
+        <v>111.3587104082256</v>
       </c>
       <c r="O45" t="n">
-        <v>181.2062374818081</v>
+        <v>101.8714643335472</v>
       </c>
       <c r="P45" t="n">
-        <v>145.4339810032438</v>
+        <v>81.76083127461402</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.21876482884863</v>
+        <v>545.5983139543202</v>
       </c>
       <c r="R45" t="n">
-        <v>165.6429287454559</v>
+        <v>144.9401608746653</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.14249374309385</v>
+        <v>112.8326691814001</v>
       </c>
       <c r="K46" t="n">
-        <v>351.716776942122</v>
+        <v>319.238368227978</v>
       </c>
       <c r="L46" t="n">
-        <v>517.36290379132</v>
+        <v>475.8017225619687</v>
       </c>
       <c r="M46" t="n">
-        <v>564.2141012129792</v>
+        <v>520.3936629142327</v>
       </c>
       <c r="N46" t="n">
-        <v>544.4351543417624</v>
+        <v>501.6566681222644</v>
       </c>
       <c r="O46" t="n">
-        <v>514.1584923452538</v>
+        <v>474.6456364229134</v>
       </c>
       <c r="P46" t="n">
-        <v>378.1779257860449</v>
+        <v>394.4315932187719</v>
       </c>
       <c r="Q46" t="n">
-        <v>53.46631218562925</v>
+        <v>199.949661036173</v>
       </c>
       <c r="R46" t="n">
-        <v>7.505984545081972</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
